--- a/Quiz challenge/Quiz simple data.xlsx
+++ b/Quiz challenge/Quiz simple data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mentorship_Program\Quiz challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC64A25-AF56-4278-AA35-0890F40AB9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AE0A66-ABC5-41FA-B1A0-5168AC1AF8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C43A32B-1E6E-4A0B-8D6F-624FBD4948C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>Quiz</t>
   </si>
@@ -84,12 +84,6 @@
   </si>
   <si>
     <t>IsDynamic</t>
-  </si>
-  <si>
-    <t>QuestionType</t>
-  </si>
-  <si>
-    <t>TypeName</t>
   </si>
   <si>
     <t>Topic</t>
@@ -245,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -264,21 +258,6 @@
         <color theme="7"/>
       </top>
       <bottom style="medium">
-        <color theme="7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="7"/>
-      </left>
-      <right style="thin">
-        <color theme="7"/>
-      </right>
-      <top style="thin">
-        <color theme="7"/>
-      </top>
-      <bottom style="thin">
         <color theme="7"/>
       </bottom>
       <diagonal/>
@@ -313,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -324,38 +303,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="85">
+  <dxfs count="81">
     <dxf>
       <font>
         <b val="0"/>
@@ -467,25 +440,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -501,22 +455,78 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -535,6 +545,44 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -549,42 +597,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -618,6 +635,44 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -632,42 +687,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -701,6 +725,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -715,23 +758,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -747,25 +778,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1063,6 +1075,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1078,6 +1109,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1092,23 +1142,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1142,6 +1180,63 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1156,61 +1251,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1244,6 +1289,44 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1258,23 +1341,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1290,179 +1361,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1631,116 +1529,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="7"/>
@@ -1748,46 +1536,167 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1803,57 +1712,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A79962B-AEC1-4BA2-8BBE-60DA57A5CFBD}" name="Table1" displayName="Table1" ref="A2:E5" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A79962B-AEC1-4BA2-8BBE-60DA57A5CFBD}" name="Table1" displayName="Table1" ref="A2:E5" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
   <autoFilter ref="A2:E5" xr:uid="{0A79962B-AEC1-4BA2-8BBE-60DA57A5CFBD}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F238FED4-8AD9-415E-BF00-9C7B319C1400}" name="Id" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{E0D6CABF-B5D0-4825-9E10-24C9F93DB042}" name="Title" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{6B319D20-A60B-4504-9908-A8CF0C774521}" name="CreatedAt" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{AB97B883-C760-4355-97E9-1D0BC51D23A3}" name="Description" dataDxfId="74"/>
-    <tableColumn id="5" xr3:uid="{773CB633-5043-4D94-8C79-DA10214C4278}" name="TimeLimit" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{F238FED4-8AD9-415E-BF00-9C7B319C1400}" name="Id" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{E0D6CABF-B5D0-4825-9E10-24C9F93DB042}" name="Title" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{6B319D20-A60B-4504-9908-A8CF0C774521}" name="CreatedAt" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{AB97B883-C760-4355-97E9-1D0BC51D23A3}" name="Description" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{773CB633-5043-4D94-8C79-DA10214C4278}" name="TimeLimit" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A3741F9-7340-4634-958D-243B2CB30081}" name="Table79133" displayName="Table79133" ref="G8:I11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A3741F9-7340-4634-958D-243B2CB30081}" name="Table79133" displayName="Table79133" ref="G8:I11" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="G8:I11" xr:uid="{0A3741F9-7340-4634-958D-243B2CB30081}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{31F14D34-66D8-41C0-A3EA-4754B439DA63}" name="Id" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{8E3A139A-5007-4A16-BB0C-C46739F67B30}" name="QuestionId" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{F32C6264-78B0-42EF-820B-362961B4B35B}" name="AnswerId" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{31F14D34-66D8-41C0-A3EA-4754B439DA63}" name="Id" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{8E3A139A-5007-4A16-BB0C-C46739F67B30}" name="QuestionId" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{F32C6264-78B0-42EF-820B-362961B4B35B}" name="AnswerId" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1FA08D23-38C9-4F9D-A38F-2FAD175CEAC5}" name="Table4" displayName="Table4" ref="A8:E11" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1FA08D23-38C9-4F9D-A38F-2FAD175CEAC5}" name="Table4" displayName="Table4" ref="A8:E11" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A8:E11" xr:uid="{1FA08D23-38C9-4F9D-A38F-2FAD175CEAC5}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6D940C02-9530-4EAD-9CFB-AEBCF3BB6A31}" name="Id" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{12869B36-21EC-4622-8455-75F60E2AD58B}" name="AnswerText" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{97B8C5D1-BBA2-4E43-902B-8228BD6EFBA7}" name="IsCorrect" dataDxfId="60"/>
-    <tableColumn id="5" xr3:uid="{415B0A9F-E9AC-4B8E-9FF6-5F36248C5433}" name="IsDynamic" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{13FBD282-3F29-4BAF-BB02-64422CAE2315}" name="CanBeSuggested" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{6D940C02-9530-4EAD-9CFB-AEBCF3BB6A31}" name="Id" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{12869B36-21EC-4622-8455-75F60E2AD58B}" name="AnswerText" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{97B8C5D1-BBA2-4E43-902B-8228BD6EFBA7}" name="IsCorrect" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{415B0A9F-E9AC-4B8E-9FF6-5F36248C5433}" name="IsDynamic" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{13FBD282-3F29-4BAF-BB02-64422CAE2315}" name="CanBeSuggested" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1A0BD42B-D2FD-4FD7-83A5-A8FEAD0D5847}" name="Table5" displayName="Table5" ref="K8:L11" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
-  <autoFilter ref="K8:L11" xr:uid="{1A0BD42B-D2FD-4FD7-83A5-A8FEAD0D5847}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{211B5A32-A4BD-4DAC-B2F3-0B91D71B8037}" name="Id" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{75D7C817-6CA8-43E2-AB94-55697383E3C3}" name="TypeName" dataDxfId="55"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BCABB276-88BA-4F24-A0D9-15F6C263304F}" name="Table61410" displayName="Table61410" ref="O2:R5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="O2:R5" xr:uid="{BCABB276-88BA-4F24-A0D9-15F6C263304F}"/>
   <tableColumns count="4">
@@ -1867,104 +1765,104 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9237A2E-255C-4FAC-BE16-9DC8EE8ED36E}" name="Table3" displayName="Table3" ref="G2:M5" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63" tableBorderDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9237A2E-255C-4FAC-BE16-9DC8EE8ED36E}" name="Table3" displayName="Table3" ref="G2:M5" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72" tableBorderDxfId="71">
   <autoFilter ref="G2:M5" xr:uid="{B9237A2E-255C-4FAC-BE16-9DC8EE8ED36E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{11A3F043-76AA-497A-8E70-04B4EEFC231A}" name="Id" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{D440EAB9-2CA3-43CA-9FA6-D491B473723D}" name="Content" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{B76291C2-CD8B-4555-83B5-1C9882F49F3C}" name="Format" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{86322B2A-4305-45A0-80DA-5F1A034A190A}" name="LevelId" dataDxfId="68"/>
-    <tableColumn id="5" xr3:uid="{7FAC9DF3-7A40-4212-B353-A4F4CE9CCB6F}" name="TopicId" dataDxfId="67"/>
-    <tableColumn id="6" xr3:uid="{E1D4D179-9F5D-466C-B4DF-CFA76EAEB4B7}" name="QuestionTypeID" dataDxfId="66"/>
-    <tableColumn id="8" xr3:uid="{61E10C33-6F73-4817-9C74-1885E6ACE839}" name="DifficultyId" dataDxfId="65"/>
+    <tableColumn id="1" xr3:uid="{11A3F043-76AA-497A-8E70-04B4EEFC231A}" name="Id" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{D440EAB9-2CA3-43CA-9FA6-D491B473723D}" name="Content" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{B76291C2-CD8B-4555-83B5-1C9882F49F3C}" name="Format" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{86322B2A-4305-45A0-80DA-5F1A034A190A}" name="LevelId" dataDxfId="67"/>
+    <tableColumn id="5" xr3:uid="{7FAC9DF3-7A40-4212-B353-A4F4CE9CCB6F}" name="TopicId" dataDxfId="66"/>
+    <tableColumn id="6" xr3:uid="{E1D4D179-9F5D-466C-B4DF-CFA76EAEB4B7}" name="QuestionTypeID" dataDxfId="65"/>
+    <tableColumn id="8" xr3:uid="{61E10C33-6F73-4817-9C74-1885E6ACE839}" name="DifficultyId" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D07F7F1F-0C11-4420-86ED-32ADFC35D176}" name="Table6" displayName="Table6" ref="A14:C17" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" tableBorderDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D07F7F1F-0C11-4420-86ED-32ADFC35D176}" name="Table6" displayName="Table6" ref="A14:C17" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" tableBorderDxfId="61">
   <autoFilter ref="A14:C17" xr:uid="{D07F7F1F-0C11-4420-86ED-32ADFC35D176}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9C6E43C9-D9C3-4FF2-B9D8-AF875E68B807}" name="Id" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{2FF6299F-DC71-4BD0-AB90-FAAD1B4B5A53}" name="TopicName" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{ABC80DC0-4DAE-40AC-AF3F-0A7147347D49}" name="ParentTopicID" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{9C6E43C9-D9C3-4FF2-B9D8-AF875E68B807}" name="Id" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{2FF6299F-DC71-4BD0-AB90-FAAD1B4B5A53}" name="TopicName" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{ABC80DC0-4DAE-40AC-AF3F-0A7147347D49}" name="ParentTopicID" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{09B70181-5D84-477D-BD87-E795B37276C4}" name="Table7" displayName="Table7" ref="E14:H17" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{09B70181-5D84-477D-BD87-E795B37276C4}" name="Table7" displayName="Table7" ref="E14:H17" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56" tableBorderDxfId="55">
   <autoFilter ref="E14:H17" xr:uid="{09B70181-5D84-477D-BD87-E795B37276C4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{328F0973-54AB-4F4E-B9DF-38A92B7D0EB7}" name="Id" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{D0E3492C-A244-453E-ADF6-AC2921F6BE53}" name="LevelName" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{32553B2B-51C8-4027-B7F6-F78571A9A039}" name="ScoreWeight" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{144C7DD5-B5F0-445F-9D2E-440C8ABE9A42}" name="TimeConstraint" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{328F0973-54AB-4F4E-B9DF-38A92B7D0EB7}" name="Id" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{D0E3492C-A244-453E-ADF6-AC2921F6BE53}" name="LevelName" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{32553B2B-51C8-4027-B7F6-F78571A9A039}" name="ScoreWeight" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{144C7DD5-B5F0-445F-9D2E-440C8ABE9A42}" name="TimeConstraint" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{80D2297E-3752-4816-811D-A39547C72AA6}" name="Table79" displayName="Table79" ref="J14:K17" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{80D2297E-3752-4816-811D-A39547C72AA6}" name="Table79" displayName="Table79" ref="J14:K17" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" tableBorderDxfId="48">
   <autoFilter ref="J14:K17" xr:uid="{80D2297E-3752-4816-811D-A39547C72AA6}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C1744FA1-A20A-41CA-B13E-2429922B812C}" name="Id" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{728CB31C-1AC9-47E9-BB92-EF4E175874DC}" name="DifficultyLevel" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{C1744FA1-A20A-41CA-B13E-2429922B812C}" name="Id" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{728CB31C-1AC9-47E9-BB92-EF4E175874DC}" name="DifficultyLevel" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B2773DDF-A39C-44D7-AEDC-CF8D980FB8FF}" name="Table411" displayName="Table411" ref="A26:E29" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B2773DDF-A39C-44D7-AEDC-CF8D980FB8FF}" name="Table411" displayName="Table411" ref="A26:E29" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="A26:E29" xr:uid="{B2773DDF-A39C-44D7-AEDC-CF8D980FB8FF}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BA579B0D-99C8-4846-AA2A-58710BEE3F30}" name="Id" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{F494C43B-BA5A-40CF-A7AE-537CD9375379}" name="UserID" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{68945211-9457-454C-A551-79DA66D3771B}" name="QuizID" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{A68FFC5C-3CC3-4441-9453-7E98D5CC6602}" name="CompletionTime" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{F002231A-EC2F-48C4-A011-265F516024DA}" name="AttemptAt" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{BA579B0D-99C8-4846-AA2A-58710BEE3F30}" name="Id" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{F494C43B-BA5A-40CF-A7AE-537CD9375379}" name="UserID" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{68945211-9457-454C-A551-79DA66D3771B}" name="QuizID" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{A68FFC5C-3CC3-4441-9453-7E98D5CC6602}" name="CompletionTime" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{F002231A-EC2F-48C4-A011-265F516024DA}" name="AttemptAt" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{42F24B4A-E5FC-4580-AC79-7A87B6E74532}" name="Table41012" displayName="Table41012" ref="A20:F23" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{42F24B4A-E5FC-4580-AC79-7A87B6E74532}" name="Table41012" displayName="Table41012" ref="A20:F23" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A20:F23" xr:uid="{42F24B4A-E5FC-4580-AC79-7A87B6E74532}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AB2F2B92-4F5E-45D5-94FB-ADB8435B9566}" name="Id" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{B9827B33-45BE-47C1-A171-29F23AD74DC2}" name="UserName" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{598DE96A-8525-495C-8324-9A1B70055E97}" name="Email" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{D74DA2E3-95DA-43B1-B28C-B64A14ABA8B1}" name="Password" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{61E76584-885D-4BCA-A61B-05EE3807BA29}" name="CreatedAt" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{C5B91E7E-7207-4164-A092-76CF2F672774}" name="UpdateAt" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{AB2F2B92-4F5E-45D5-94FB-ADB8435B9566}" name="Id" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{B9827B33-45BE-47C1-A171-29F23AD74DC2}" name="UserName" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{598DE96A-8525-495C-8324-9A1B70055E97}" name="Email" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{D74DA2E3-95DA-43B1-B28C-B64A14ABA8B1}" name="Password" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{61E76584-885D-4BCA-A61B-05EE3807BA29}" name="CreatedAt" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{C5B91E7E-7207-4164-A092-76CF2F672774}" name="UpdateAt" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{95831571-9C87-4440-87AF-BF73E4AC9116}" name="Table7913" displayName="Table7913" ref="M14:N17" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{95831571-9C87-4440-87AF-BF73E4AC9116}" name="Table7913" displayName="Table7913" ref="M14:N17" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" tableBorderDxfId="28">
   <autoFilter ref="M14:N17" xr:uid="{95831571-9C87-4440-87AF-BF73E4AC9116}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1F990601-E557-47FB-8BA6-C13EDC870C9A}" name="Id" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{A2948159-0DD4-4B14-88B5-D3A03351CB46}" name="TagName" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{1F990601-E557-47FB-8BA6-C13EDC870C9A}" name="Id" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{A2948159-0DD4-4B14-88B5-D3A03351CB46}" name="TagName" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{172FEB26-D470-4DD3-A6B9-7812A67DE76B}" name="Table614" displayName="Table614" ref="N8:P11" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="79">
-  <autoFilter ref="N8:P11" xr:uid="{172FEB26-D470-4DD3-A6B9-7812A67DE76B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{172FEB26-D470-4DD3-A6B9-7812A67DE76B}" name="Table614" displayName="Table614" ref="K8:M11" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" tableBorderDxfId="23">
+  <autoFilter ref="K8:M11" xr:uid="{172FEB26-D470-4DD3-A6B9-7812A67DE76B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5EF818BD-C86D-4338-9280-8E899285291D}" name="Id" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{F202310B-9358-46FF-8993-03E3CF29818B}" name="TagId" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{7DE9867C-B9A0-499A-B0CC-33BBAE363D7D}" name="QuestionID" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{5EF818BD-C86D-4338-9280-8E899285291D}" name="Id" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{F202310B-9358-46FF-8993-03E3CF29818B}" name="TagId" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{7DE9867C-B9A0-499A-B0CC-33BBAE363D7D}" name="QuestionID" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2290,7 +2188,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2323,7 +2221,7 @@
         <v>5</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P1" s="1"/>
     </row>
@@ -2335,13 +2233,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>2</v>
@@ -2368,13 +2266,13 @@
         <v>2</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -2414,18 +2312,14 @@
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="K7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="N7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" s="1"/>
+      <c r="G7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="K7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:18" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
@@ -2441,30 +2335,24 @@
         <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2473,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -2485,10 +2373,7 @@
       <c r="G9" s="6">
         <v>1</v>
       </c>
-      <c r="K9" s="9">
-        <v>1</v>
-      </c>
-      <c r="N9" s="6">
+      <c r="K9" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2497,7 +2382,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -2509,10 +2394,7 @@
       <c r="G10" s="7">
         <v>2</v>
       </c>
-      <c r="K10" s="10">
-        <v>2</v>
-      </c>
-      <c r="N10" s="7">
+      <c r="K10" s="7">
         <v>2</v>
       </c>
     </row>
@@ -2521,7 +2403,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -2533,25 +2415,22 @@
       <c r="G11" s="6">
         <v>3</v>
       </c>
-      <c r="K11" s="9">
-        <v>3</v>
-      </c>
-      <c r="N11" s="6">
+      <c r="K11" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="M13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -2559,34 +2438,34 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>2</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -2633,7 +2512,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -2641,19 +2520,19 @@
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="E20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -2672,26 +2551,26 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="11"/>
+      <c r="A25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:13" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -2716,7 +2595,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
-  <tableParts count="13">
+  <tableParts count="12">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -2729,7 +2608,6 @@
     <tablePart r:id="rId11"/>
     <tablePart r:id="rId12"/>
     <tablePart r:id="rId13"/>
-    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Quiz challenge/Quiz simple data.xlsx
+++ b/Quiz challenge/Quiz simple data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mentorship_Program\Quiz challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EEC50B-EFDB-4877-8E4B-E13CE7F1D278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9C349F-3E4B-4B79-B835-A9C5FED65936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7C43A32B-1E6E-4A0B-8D6F-624FBD4948C3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C43A32B-1E6E-4A0B-8D6F-624FBD4948C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t>Quiz</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>"Sử dụng foreach để lặp qua một mảng"</t>
+  </si>
+  <si>
+    <t>Tạo list question</t>
+  </si>
+  <si>
+    <t>answer</t>
   </si>
 </sst>
 </file>
@@ -352,9 +358,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -372,92 +375,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="71">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -571,6 +497,377 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -682,22 +979,38 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -812,64 +1125,26 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -923,6 +1198,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <strike val="0"/>
         <outline val="0"/>
@@ -938,42 +1232,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -993,63 +1256,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <strike val="0"/>
         <outline val="0"/>
@@ -1066,41 +1272,191 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1138,101 +1494,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="7"/>
@@ -1353,7 +1614,29 @@
     <dxf>
       <font>
         <b/>
-        <strike val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1369,295 +1652,18 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1673,136 +1679,136 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A79962B-AEC1-4BA2-8BBE-60DA57A5CFBD}" name="Table1" displayName="Table1" ref="A2:E5" totalsRowShown="0" headerRowDxfId="50" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A79962B-AEC1-4BA2-8BBE-60DA57A5CFBD}" name="Table1" displayName="Table1" ref="A2:E5" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
   <autoFilter ref="A2:E5" xr:uid="{0A79962B-AEC1-4BA2-8BBE-60DA57A5CFBD}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F238FED4-8AD9-415E-BF00-9C7B319C1400}" name="Id" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{E0D6CABF-B5D0-4825-9E10-24C9F93DB042}" name="Title" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{6B319D20-A60B-4504-9908-A8CF0C774521}" name="Description" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{AB97B883-C760-4355-97E9-1D0BC51D23A3}" name="CreatedAt" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{773CB633-5043-4D94-8C79-DA10214C4278}" name="TimeLimit" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{F238FED4-8AD9-415E-BF00-9C7B319C1400}" name="Id" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{E0D6CABF-B5D0-4825-9E10-24C9F93DB042}" name="Title" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{6B319D20-A60B-4504-9908-A8CF0C774521}" name="Description" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{AB97B883-C760-4355-97E9-1D0BC51D23A3}" name="CreatedAt" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{773CB633-5043-4D94-8C79-DA10214C4278}" name="TimeLimit" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AEB1B0AB-8A75-404F-AC46-C9C83A408145}" name="Table4116" displayName="Table4116" ref="G26:K29" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AEB1B0AB-8A75-404F-AC46-C9C83A408145}" name="Table4116" displayName="Table4116" ref="G26:K29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="G26:K29" xr:uid="{AEB1B0AB-8A75-404F-AC46-C9C83A408145}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F53C790D-B82B-4BAF-8ED9-8E9B5E30319B}" name="Id" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{56133213-8380-4969-A3B5-7B121D24AC10}" name="UserQuizId " dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{939056A5-287C-41B8-AD54-CC6B7E027FE8}" name="QuestionId " dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{54E8C5D0-0929-4C3C-BBFE-434E783DC4F0}" name="AnswerId " dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{CA923F4E-9135-4650-820C-838E8B063852}" name="FreeText " dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{F53C790D-B82B-4BAF-8ED9-8E9B5E30319B}" name="Id" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{56133213-8380-4969-A3B5-7B121D24AC10}" name="UserQuizId " dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{939056A5-287C-41B8-AD54-CC6B7E027FE8}" name="QuestionId " dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{54E8C5D0-0929-4C3C-BBFE-434E783DC4F0}" name="AnswerId " dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{CA923F4E-9135-4650-820C-838E8B063852}" name="FreeText " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9237A2E-255C-4FAC-BE16-9DC8EE8ED36E}" name="Table3" displayName="Table3" ref="G2:L5" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" tableBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9237A2E-255C-4FAC-BE16-9DC8EE8ED36E}" name="Table3" displayName="Table3" ref="G2:L5" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" tableBorderDxfId="61">
   <autoFilter ref="G2:L5" xr:uid="{B9237A2E-255C-4FAC-BE16-9DC8EE8ED36E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{11A3F043-76AA-497A-8E70-04B4EEFC231A}" name="Id" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{D440EAB9-2CA3-43CA-9FA6-D491B473723D}" name="Content" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{B76291C2-CD8B-4555-83B5-1C9882F49F3C}" name="Format" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{86322B2A-4305-45A0-80DA-5F1A034A190A}" name="LevelId" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{7FAC9DF3-7A40-4212-B353-A4F4CE9CCB6F}" name="TopicId" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{E1D4D179-9F5D-466C-B4DF-CFA76EAEB4B7}" name="QuestionTypeID" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{11A3F043-76AA-497A-8E70-04B4EEFC231A}" name="Id" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{D440EAB9-2CA3-43CA-9FA6-D491B473723D}" name="Content" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{B76291C2-CD8B-4555-83B5-1C9882F49F3C}" name="Format" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{86322B2A-4305-45A0-80DA-5F1A034A190A}" name="LevelId" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{7FAC9DF3-7A40-4212-B353-A4F4CE9CCB6F}" name="TopicId" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{E1D4D179-9F5D-466C-B4DF-CFA76EAEB4B7}" name="QuestionTypeID" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D07F7F1F-0C11-4420-86ED-32ADFC35D176}" name="Table6" displayName="Table6" ref="A14:C17" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66" tableBorderDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D07F7F1F-0C11-4420-86ED-32ADFC35D176}" name="Table6" displayName="Table6" ref="A14:C17" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53" tableBorderDxfId="52">
   <autoFilter ref="A14:C17" xr:uid="{D07F7F1F-0C11-4420-86ED-32ADFC35D176}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9C6E43C9-D9C3-4FF2-B9D8-AF875E68B807}" name="Id" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{2FF6299F-DC71-4BD0-AB90-FAAD1B4B5A53}" name="Name" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{ABC80DC0-4DAE-40AC-AF3F-0A7147347D49}" name="ParentTopicID" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{9C6E43C9-D9C3-4FF2-B9D8-AF875E68B807}" name="Id" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{2FF6299F-DC71-4BD0-AB90-FAAD1B4B5A53}" name="Name" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{ABC80DC0-4DAE-40AC-AF3F-0A7147347D49}" name="ParentTopicID" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{09B70181-5D84-477D-BD87-E795B37276C4}" name="Table7" displayName="Table7" ref="E14:H17" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64" tableBorderDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{09B70181-5D84-477D-BD87-E795B37276C4}" name="Table7" displayName="Table7" ref="E14:H17" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47" tableBorderDxfId="46">
   <autoFilter ref="E14:H17" xr:uid="{09B70181-5D84-477D-BD87-E795B37276C4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{328F0973-54AB-4F4E-B9DF-38A92B7D0EB7}" name="Id" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{D0E3492C-A244-453E-ADF6-AC2921F6BE53}" name="LevelName" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{32553B2B-51C8-4027-B7F6-F78571A9A039}" name="ScoreWeight" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{144C7DD5-B5F0-445F-9D2E-440C8ABE9A42}" name="TimeConstraint" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{328F0973-54AB-4F4E-B9DF-38A92B7D0EB7}" name="Id" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{D0E3492C-A244-453E-ADF6-AC2921F6BE53}" name="LevelName" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{32553B2B-51C8-4027-B7F6-F78571A9A039}" name="ScoreWeight" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{144C7DD5-B5F0-445F-9D2E-440C8ABE9A42}" name="TimeConstraint" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B2773DDF-A39C-44D7-AEDC-CF8D980FB8FF}" name="Table411" displayName="Table411" ref="A26:E29" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B2773DDF-A39C-44D7-AEDC-CF8D980FB8FF}" name="Table411" displayName="Table411" ref="A26:E29" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A26:E29" xr:uid="{B2773DDF-A39C-44D7-AEDC-CF8D980FB8FF}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BA579B0D-99C8-4846-AA2A-58710BEE3F30}" name="Id" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{F494C43B-BA5A-40CF-A7AE-537CD9375379}" name="UserID" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{68945211-9457-454C-A551-79DA66D3771B}" name="QuizID" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{A68FFC5C-3CC3-4441-9453-7E98D5CC6602}" name="CompletionTime" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{F002231A-EC2F-48C4-A011-265F516024DA}" name="AttemptAt" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{BA579B0D-99C8-4846-AA2A-58710BEE3F30}" name="Id" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{F494C43B-BA5A-40CF-A7AE-537CD9375379}" name="UserID" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{68945211-9457-454C-A551-79DA66D3771B}" name="QuizID" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{A68FFC5C-3CC3-4441-9453-7E98D5CC6602}" name="CompletionTime" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{F002231A-EC2F-48C4-A011-265F516024DA}" name="AttemptAt" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{42F24B4A-E5FC-4580-AC79-7A87B6E74532}" name="Table41012" displayName="Table41012" ref="A20:F23" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{42F24B4A-E5FC-4580-AC79-7A87B6E74532}" name="Table41012" displayName="Table41012" ref="A20:F23" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A20:F23" xr:uid="{42F24B4A-E5FC-4580-AC79-7A87B6E74532}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AB2F2B92-4F5E-45D5-94FB-ADB8435B9566}" name="Id" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{B9827B33-45BE-47C1-A171-29F23AD74DC2}" name="UserName" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{598DE96A-8525-495C-8324-9A1B70055E97}" name="Email" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{D74DA2E3-95DA-43B1-B28C-B64A14ABA8B1}" name="Password" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{61E76584-885D-4BCA-A61B-05EE3807BA29}" name="CreatedAt" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{C5B91E7E-7207-4164-A092-76CF2F672774}" name="UpdateAt" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{AB2F2B92-4F5E-45D5-94FB-ADB8435B9566}" name="Id" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{B9827B33-45BE-47C1-A171-29F23AD74DC2}" name="UserName" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{598DE96A-8525-495C-8324-9A1B70055E97}" name="Email" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{D74DA2E3-95DA-43B1-B28C-B64A14ABA8B1}" name="Password" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{61E76584-885D-4BCA-A61B-05EE3807BA29}" name="CreatedAt" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{C5B91E7E-7207-4164-A092-76CF2F672774}" name="UpdateAt" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A3741F9-7340-4634-958D-243B2CB30081}" name="Table79133" displayName="Table79133" ref="G8:I11" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" tableBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A3741F9-7340-4634-958D-243B2CB30081}" name="Table79133" displayName="Table79133" ref="G8:I11" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24">
   <autoFilter ref="G8:I11" xr:uid="{0A3741F9-7340-4634-958D-243B2CB30081}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{31F14D34-66D8-41C0-A3EA-4754B439DA63}" name="Id" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{8E3A139A-5007-4A16-BB0C-C46739F67B30}" name="QuestionId" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{F32C6264-78B0-42EF-820B-362961B4B35B}" name="AnswerId" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{31F14D34-66D8-41C0-A3EA-4754B439DA63}" name="Id" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{8E3A139A-5007-4A16-BB0C-C46739F67B30}" name="QuestionId" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{F32C6264-78B0-42EF-820B-362961B4B35B}" name="AnswerId" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1FA08D23-38C9-4F9D-A38F-2FAD175CEAC5}" name="Table4" displayName="Table4" ref="A8:E11" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1FA08D23-38C9-4F9D-A38F-2FAD175CEAC5}" name="Table4" displayName="Table4" ref="A8:E11" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A8:E11" xr:uid="{1FA08D23-38C9-4F9D-A38F-2FAD175CEAC5}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6D940C02-9530-4EAD-9CFB-AEBCF3BB6A31}" name="Id" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{12869B36-21EC-4622-8455-75F60E2AD58B}" name="AnswerText" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{97B8C5D1-BBA2-4E43-902B-8228BD6EFBA7}" name="IsCorrect" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{415B0A9F-E9AC-4B8E-9FF6-5F36248C5433}" name="IsDynamic" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{13FBD282-3F29-4BAF-BB02-64422CAE2315}" name="CanBeSuggested" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{6D940C02-9530-4EAD-9CFB-AEBCF3BB6A31}" name="Id" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{12869B36-21EC-4622-8455-75F60E2AD58B}" name="AnswerText" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{97B8C5D1-BBA2-4E43-902B-8228BD6EFBA7}" name="IsCorrect" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{415B0A9F-E9AC-4B8E-9FF6-5F36248C5433}" name="IsDynamic" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{13FBD282-3F29-4BAF-BB02-64422CAE2315}" name="CanBeSuggested" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BCABB276-88BA-4F24-A0D9-15F6C263304F}" name="Table61410" displayName="Table61410" ref="N2:Q5" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56" tableBorderDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BCABB276-88BA-4F24-A0D9-15F6C263304F}" name="Table61410" displayName="Table61410" ref="N2:Q5" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="N2:Q5" xr:uid="{BCABB276-88BA-4F24-A0D9-15F6C263304F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5EB3FF8F-A636-4EEE-B8E1-1807AA06E054}" name="Id" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{CEAAA849-0E1B-4880-BB0D-7B68048D946C}" name="QuizId" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{DAED52E6-0B97-493B-8C38-2D2C83FDE3CC}" name="QuestionId" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{1B02BC0F-6221-4E41-A04C-917A41872E22}" name="Order" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{5EB3FF8F-A636-4EEE-B8E1-1807AA06E054}" name="Id" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{CEAAA849-0E1B-4880-BB0D-7B68048D946C}" name="QuizId" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{DAED52E6-0B97-493B-8C38-2D2C83FDE3CC}" name="QuestionId" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{1B02BC0F-6221-4E41-A04C-917A41872E22}" name="Order" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2127,8 +2133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A88412-2F2D-4255-B565-F6FDBB99DF9D}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2165,7 +2171,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2221,16 +2227,16 @@
       <c r="C3" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>45590</v>
       </c>
       <c r="E3" s="2">
         <v>30</v>
       </c>
-      <c r="G3" s="8">
-        <v>1</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>50</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -2245,7 +2251,7 @@
       <c r="L3" s="2">
         <v>1</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <v>1</v>
       </c>
       <c r="O3" s="2">
@@ -2266,10 +2272,10 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>2</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>51</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -2284,7 +2290,7 @@
       <c r="L4" s="2">
         <v>2</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="8">
         <v>2</v>
       </c>
       <c r="O4" s="2">
@@ -2305,10 +2311,10 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>3</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>52</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -2323,7 +2329,7 @@
       <c r="L5" s="2">
         <v>1</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <v>3</v>
       </c>
       <c r="O5" s="2">
@@ -2372,10 +2378,10 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>1</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="2">
@@ -2387,8 +2393,8 @@
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8">
+      <c r="F9" s="6"/>
+      <c r="G9" s="7">
         <v>1</v>
       </c>
       <c r="H9" s="2">
@@ -2397,12 +2403,18 @@
       <c r="I9" s="2">
         <v>1</v>
       </c>
+      <c r="L9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="2">
@@ -2414,8 +2426,8 @@
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="9">
+      <c r="F10" s="6"/>
+      <c r="G10" s="8">
         <v>2</v>
       </c>
       <c r="H10" s="2">
@@ -2424,12 +2436,18 @@
       <c r="I10" s="2">
         <v>2</v>
       </c>
+      <c r="L10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="2">
@@ -2441,8 +2459,8 @@
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8">
+      <c r="F11" s="6"/>
+      <c r="G11" s="7">
         <v>3</v>
       </c>
       <c r="H11" s="2">
@@ -2451,6 +2469,16 @@
       <c r="I11" s="2">
         <v>3</v>
       </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -2459,6 +2487,10 @@
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:17" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -2482,9 +2514,13 @@
       <c r="H14" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2493,7 +2529,7 @@
       <c r="C15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -2505,9 +2541,13 @@
       <c r="H15" s="2">
         <v>1</v>
       </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2516,7 +2556,7 @@
       <c r="C16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>2</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -2530,7 +2570,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2539,7 +2579,7 @@
       <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>3</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -2578,27 +2618,27 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <v>45566</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>45566</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>2</v>
       </c>
       <c r="B22" s="2"/>
@@ -2608,7 +2648,7 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>3</v>
       </c>
       <c r="B23" s="2"/>
@@ -2618,14 +2658,14 @@
       <c r="F23" s="2"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="G25" s="6" t="s">
+      <c r="B25" s="12"/>
+      <c r="G25" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="6"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:11" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
@@ -2660,7 +2700,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
+      <c r="A27" s="7">
         <v>1</v>
       </c>
       <c r="B27" s="2">
@@ -2672,10 +2712,10 @@
       <c r="D27" s="2">
         <v>25</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="9">
         <v>45590</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <v>1</v>
       </c>
       <c r="H27" s="2">
@@ -2692,14 +2732,14 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>2</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="G28" s="9">
+      <c r="G28" s="8">
         <v>2</v>
       </c>
       <c r="H28" s="2">
@@ -2711,19 +2751,19 @@
       <c r="J28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
+      <c r="A29" s="7">
         <v>3</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="G29" s="8">
+      <c r="G29" s="7">
         <v>3</v>
       </c>
       <c r="H29" s="2">

--- a/Quiz challenge/Quiz simple data.xlsx
+++ b/Quiz challenge/Quiz simple data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mentorship_Program\Quiz challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9C349F-3E4B-4B79-B835-A9C5FED65936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD2EE9C-A49D-4DD0-8845-86E7E99D5DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C43A32B-1E6E-4A0B-8D6F-624FBD4948C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
   <si>
     <t>Quiz</t>
   </si>
@@ -65,9 +65,6 @@
     <t>TopicId</t>
   </si>
   <si>
-    <t>QuestionTypeID</t>
-  </si>
-  <si>
     <t>Answer</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>UserName</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -182,9 +176,6 @@
     <t xml:space="preserve">FreeText </t>
   </si>
   <si>
-    <t>Quiz C# Căn Bản</t>
-  </si>
-  <si>
     <t>Kiến thức cơ bản về C#</t>
   </si>
   <si>
@@ -227,9 +218,6 @@
     <t>Nam</t>
   </si>
   <si>
-    <t>nam@gmail.com</t>
-  </si>
-  <si>
     <t>password1</t>
   </si>
   <si>
@@ -239,17 +227,101 @@
     <t>"Sử dụng foreach để lặp qua một mảng"</t>
   </si>
   <si>
-    <t>Tạo list question</t>
-  </si>
-  <si>
-    <t>answer</t>
+    <t>UserRole</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>RoleId</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>RoleName</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>password2</t>
+  </si>
+  <si>
+    <t>password3</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Luffy</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>TypeName</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>TagId</t>
+  </si>
+  <si>
+    <t>Data Structures</t>
+  </si>
+  <si>
+    <t>TypeId</t>
+  </si>
+  <si>
+    <t>QuizTag</t>
+  </si>
+  <si>
+    <t>Quick Quiz</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>C# Căn Bản</t>
+  </si>
+  <si>
+    <t>Multiple Choice</t>
+  </si>
+  <si>
+    <t>Fill in the Blank</t>
+  </si>
+  <si>
+    <t>Essay question</t>
+  </si>
+  <si>
+    <t>nam@email.com</t>
+  </si>
+  <si>
+    <t>ohn@email.com</t>
+  </si>
+  <si>
+    <t>Luffy@email.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,14 +346,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -336,11 +400,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -372,18 +435,493 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="71">
+  <dxfs count="98">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -498,25 +1036,6 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -532,63 +1051,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <strike val="0"/>
         <outline val="0"/>
@@ -604,11 +1066,61 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -640,6 +1152,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -736,64 +1264,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <strike val="0"/>
         <outline val="0"/>
@@ -809,11 +1283,42 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -834,6 +1339,25 @@
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -846,63 +1370,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1126,25 +1593,6 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1160,63 +1608,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <strike val="0"/>
         <outline val="0"/>
@@ -1232,11 +1623,61 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1272,44 +1713,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <strike val="0"/>
         <outline val="0"/>
@@ -1325,11 +1728,42 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1346,6 +1780,25 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1494,6 +1947,136 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="7"/>
@@ -1501,169 +2084,60 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1679,136 +2153,193 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A79962B-AEC1-4BA2-8BBE-60DA57A5CFBD}" name="Table1" displayName="Table1" ref="A2:E5" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A79962B-AEC1-4BA2-8BBE-60DA57A5CFBD}" name="Table1" displayName="Table1" ref="A2:E5" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="A2:E5" xr:uid="{0A79962B-AEC1-4BA2-8BBE-60DA57A5CFBD}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F238FED4-8AD9-415E-BF00-9C7B319C1400}" name="Id" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{E0D6CABF-B5D0-4825-9E10-24C9F93DB042}" name="Title" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{6B319D20-A60B-4504-9908-A8CF0C774521}" name="Description" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{AB97B883-C760-4355-97E9-1D0BC51D23A3}" name="CreatedAt" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{773CB633-5043-4D94-8C79-DA10214C4278}" name="TimeLimit" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{F238FED4-8AD9-415E-BF00-9C7B319C1400}" name="Id" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{E0D6CABF-B5D0-4825-9E10-24C9F93DB042}" name="Title" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{6B319D20-A60B-4504-9908-A8CF0C774521}" name="Description" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{AB97B883-C760-4355-97E9-1D0BC51D23A3}" name="CreatedAt" dataDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{773CB633-5043-4D94-8C79-DA10214C4278}" name="TimeLimit" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AEB1B0AB-8A75-404F-AC46-C9C83A408145}" name="Table4116" displayName="Table4116" ref="G26:K29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AEB1B0AB-8A75-404F-AC46-C9C83A408145}" name="Table4116" displayName="Table4116" ref="G26:K29" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="G26:K29" xr:uid="{AEB1B0AB-8A75-404F-AC46-C9C83A408145}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F53C790D-B82B-4BAF-8ED9-8E9B5E30319B}" name="Id" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{56133213-8380-4969-A3B5-7B121D24AC10}" name="UserQuizId " dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{939056A5-287C-41B8-AD54-CC6B7E027FE8}" name="QuestionId " dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{54E8C5D0-0929-4C3C-BBFE-434E783DC4F0}" name="AnswerId " dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{CA923F4E-9135-4650-820C-838E8B063852}" name="FreeText " dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{F53C790D-B82B-4BAF-8ED9-8E9B5E30319B}" name="Id" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{56133213-8380-4969-A3B5-7B121D24AC10}" name="UserQuizId " dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{939056A5-287C-41B8-AD54-CC6B7E027FE8}" name="QuestionId " dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{54E8C5D0-0929-4C3C-BBFE-434E783DC4F0}" name="AnswerId " dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{CA923F4E-9135-4650-820C-838E8B063852}" name="FreeText " dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5EF00002-90ED-499C-A6B7-295B92CCAD08}" name="Table791339" displayName="Table791339" ref="H20:J23" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="92">
+  <autoFilter ref="H20:J23" xr:uid="{5EF00002-90ED-499C-A6B7-295B92CCAD08}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{95A5F424-E322-4E19-BD04-574E4757D985}" name="Id" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{F47EAF99-A848-4F78-B3CF-8B338BCC4322}" name="UserId" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{8E39D621-8D60-49C1-9B93-416027E720CC}" name="RoleId" dataDxfId="23"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3F1D2D8D-F15C-44EF-A0DC-AADD7EB5D9DD}" name="Table79133914" displayName="Table79133914" ref="J14:K17" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="91">
+  <autoFilter ref="J14:K17" xr:uid="{3F1D2D8D-F15C-44EF-A0DC-AADD7EB5D9DD}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C6F3F560-D724-4DE4-ABDC-739035A53B46}" name="Id" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{8305E703-F7D3-4F2F-BBAD-2F1F7B3FF6CD}" name="RoleName" dataDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{758FCF58-11CF-4F6E-BB37-CBCB4FDD9179}" name="Table7913391415" displayName="Table7913391415" ref="M14:N17" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="90">
+  <autoFilter ref="M14:N17" xr:uid="{758FCF58-11CF-4F6E-BB37-CBCB4FDD9179}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C2533080-054E-44EF-A66B-1FF609F85487}" name="Id" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{7AE9E73D-B773-4753-A6F3-9EF8AF42E6CE}" name="TypeName" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{E20F82DB-463C-45EB-86AA-455A74ECDFCB}" name="Table791339141516" displayName="Table791339141516" ref="K8:L11" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="89">
+  <autoFilter ref="K8:L11" xr:uid="{E20F82DB-463C-45EB-86AA-455A74ECDFCB}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C7A1C32B-C429-4703-A9AA-39EC009955C1}" name="Id" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{7A920786-0E2D-4329-81AA-1DAE95E5D364}" name="TypeName" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{946485ED-02FC-46A8-8EF9-800E43C9FAA1}" name="Table7913317" displayName="Table7913317" ref="N8:P11" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="N8:P11" xr:uid="{946485ED-02FC-46A8-8EF9-800E43C9FAA1}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{FB3FB424-4531-48FD-A206-D2957E2A26B0}" name="Id" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{0A967AD0-0A48-4A60-B1C6-C853FCAEC469}" name="QuizId" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{F5E411F8-4FC0-4725-943A-733B504B7A16}" name="TagId" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9237A2E-255C-4FAC-BE16-9DC8EE8ED36E}" name="Table3" displayName="Table3" ref="G2:L5" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" tableBorderDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9237A2E-255C-4FAC-BE16-9DC8EE8ED36E}" name="Table3" displayName="Table3" ref="G2:L5" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74" tableBorderDxfId="97">
   <autoFilter ref="G2:L5" xr:uid="{B9237A2E-255C-4FAC-BE16-9DC8EE8ED36E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{11A3F043-76AA-497A-8E70-04B4EEFC231A}" name="Id" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{D440EAB9-2CA3-43CA-9FA6-D491B473723D}" name="Content" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{B76291C2-CD8B-4555-83B5-1C9882F49F3C}" name="Format" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{86322B2A-4305-45A0-80DA-5F1A034A190A}" name="LevelId" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{7FAC9DF3-7A40-4212-B353-A4F4CE9CCB6F}" name="TopicId" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{E1D4D179-9F5D-466C-B4DF-CFA76EAEB4B7}" name="QuestionTypeID" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{11A3F043-76AA-497A-8E70-04B4EEFC231A}" name="Id" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{D440EAB9-2CA3-43CA-9FA6-D491B473723D}" name="Content" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{B76291C2-CD8B-4555-83B5-1C9882F49F3C}" name="Format" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{86322B2A-4305-45A0-80DA-5F1A034A190A}" name="LevelId" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{7FAC9DF3-7A40-4212-B353-A4F4CE9CCB6F}" name="TopicId" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{E1D4D179-9F5D-466C-B4DF-CFA76EAEB4B7}" name="TypeId" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D07F7F1F-0C11-4420-86ED-32ADFC35D176}" name="Table6" displayName="Table6" ref="A14:C17" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53" tableBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D07F7F1F-0C11-4420-86ED-32ADFC35D176}" name="Table6" displayName="Table6" ref="A14:C17" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69" tableBorderDxfId="96">
   <autoFilter ref="A14:C17" xr:uid="{D07F7F1F-0C11-4420-86ED-32ADFC35D176}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9C6E43C9-D9C3-4FF2-B9D8-AF875E68B807}" name="Id" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{2FF6299F-DC71-4BD0-AB90-FAAD1B4B5A53}" name="Name" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{ABC80DC0-4DAE-40AC-AF3F-0A7147347D49}" name="ParentTopicID" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{9C6E43C9-D9C3-4FF2-B9D8-AF875E68B807}" name="Id" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{2FF6299F-DC71-4BD0-AB90-FAAD1B4B5A53}" name="Name" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{ABC80DC0-4DAE-40AC-AF3F-0A7147347D49}" name="ParentTopicID" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{09B70181-5D84-477D-BD87-E795B37276C4}" name="Table7" displayName="Table7" ref="E14:H17" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47" tableBorderDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{09B70181-5D84-477D-BD87-E795B37276C4}" name="Table7" displayName="Table7" ref="E14:H17" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63" tableBorderDxfId="95">
   <autoFilter ref="E14:H17" xr:uid="{09B70181-5D84-477D-BD87-E795B37276C4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{328F0973-54AB-4F4E-B9DF-38A92B7D0EB7}" name="Id" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{D0E3492C-A244-453E-ADF6-AC2921F6BE53}" name="LevelName" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{32553B2B-51C8-4027-B7F6-F78571A9A039}" name="ScoreWeight" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{144C7DD5-B5F0-445F-9D2E-440C8ABE9A42}" name="TimeConstraint" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{328F0973-54AB-4F4E-B9DF-38A92B7D0EB7}" name="Id" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{D0E3492C-A244-453E-ADF6-AC2921F6BE53}" name="LevelName" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{32553B2B-51C8-4027-B7F6-F78571A9A039}" name="ScoreWeight" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{144C7DD5-B5F0-445F-9D2E-440C8ABE9A42}" name="TimeConstraint" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B2773DDF-A39C-44D7-AEDC-CF8D980FB8FF}" name="Table411" displayName="Table411" ref="A26:E29" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B2773DDF-A39C-44D7-AEDC-CF8D980FB8FF}" name="Table411" displayName="Table411" ref="A26:E29" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
   <autoFilter ref="A26:E29" xr:uid="{B2773DDF-A39C-44D7-AEDC-CF8D980FB8FF}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BA579B0D-99C8-4846-AA2A-58710BEE3F30}" name="Id" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{F494C43B-BA5A-40CF-A7AE-537CD9375379}" name="UserID" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{68945211-9457-454C-A551-79DA66D3771B}" name="QuizID" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{A68FFC5C-3CC3-4441-9453-7E98D5CC6602}" name="CompletionTime" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{F002231A-EC2F-48C4-A011-265F516024DA}" name="AttemptAt" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{BA579B0D-99C8-4846-AA2A-58710BEE3F30}" name="Id" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{F494C43B-BA5A-40CF-A7AE-537CD9375379}" name="UserID" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{68945211-9457-454C-A551-79DA66D3771B}" name="QuizID" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{A68FFC5C-3CC3-4441-9453-7E98D5CC6602}" name="CompletionTime" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{F002231A-EC2F-48C4-A011-265F516024DA}" name="AttemptAt" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{42F24B4A-E5FC-4580-AC79-7A87B6E74532}" name="Table41012" displayName="Table41012" ref="A20:F23" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{42F24B4A-E5FC-4580-AC79-7A87B6E74532}" name="Table41012" displayName="Table41012" ref="A20:F23" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="A20:F23" xr:uid="{42F24B4A-E5FC-4580-AC79-7A87B6E74532}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AB2F2B92-4F5E-45D5-94FB-ADB8435B9566}" name="Id" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{B9827B33-45BE-47C1-A171-29F23AD74DC2}" name="UserName" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{598DE96A-8525-495C-8324-9A1B70055E97}" name="Email" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{D74DA2E3-95DA-43B1-B28C-B64A14ABA8B1}" name="Password" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{61E76584-885D-4BCA-A61B-05EE3807BA29}" name="CreatedAt" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{C5B91E7E-7207-4164-A092-76CF2F672774}" name="UpdateAt" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{AB2F2B92-4F5E-45D5-94FB-ADB8435B9566}" name="Id" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{B9827B33-45BE-47C1-A171-29F23AD74DC2}" name="UserName" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{B49FE75E-62B6-4D37-8C90-5095A776B904}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{D74DA2E3-95DA-43B1-B28C-B64A14ABA8B1}" name="Password" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{61E76584-885D-4BCA-A61B-05EE3807BA29}" name="CreatedAt" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{C5B91E7E-7207-4164-A092-76CF2F672774}" name="UpdateAt" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A3741F9-7340-4634-958D-243B2CB30081}" name="Table79133" displayName="Table79133" ref="G8:I11" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A3741F9-7340-4634-958D-243B2CB30081}" name="Table79133" displayName="Table79133" ref="G8:I11" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46" tableBorderDxfId="94">
   <autoFilter ref="G8:I11" xr:uid="{0A3741F9-7340-4634-958D-243B2CB30081}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{31F14D34-66D8-41C0-A3EA-4754B439DA63}" name="Id" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{8E3A139A-5007-4A16-BB0C-C46739F67B30}" name="QuestionId" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{F32C6264-78B0-42EF-820B-362961B4B35B}" name="AnswerId" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{31F14D34-66D8-41C0-A3EA-4754B439DA63}" name="Id" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{8E3A139A-5007-4A16-BB0C-C46739F67B30}" name="QuestionId" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{F32C6264-78B0-42EF-820B-362961B4B35B}" name="AnswerId" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1FA08D23-38C9-4F9D-A38F-2FAD175CEAC5}" name="Table4" displayName="Table4" ref="A8:E11" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1FA08D23-38C9-4F9D-A38F-2FAD175CEAC5}" name="Table4" displayName="Table4" ref="A8:E11" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A8:E11" xr:uid="{1FA08D23-38C9-4F9D-A38F-2FAD175CEAC5}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6D940C02-9530-4EAD-9CFB-AEBCF3BB6A31}" name="Id" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{12869B36-21EC-4622-8455-75F60E2AD58B}" name="AnswerText" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{97B8C5D1-BBA2-4E43-902B-8228BD6EFBA7}" name="IsCorrect" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{415B0A9F-E9AC-4B8E-9FF6-5F36248C5433}" name="IsDynamic" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{13FBD282-3F29-4BAF-BB02-64422CAE2315}" name="CanBeSuggested" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{6D940C02-9530-4EAD-9CFB-AEBCF3BB6A31}" name="Id" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{12869B36-21EC-4622-8455-75F60E2AD58B}" name="AnswerText" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{97B8C5D1-BBA2-4E43-902B-8228BD6EFBA7}" name="IsCorrect" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{415B0A9F-E9AC-4B8E-9FF6-5F36248C5433}" name="IsDynamic" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{13FBD282-3F29-4BAF-BB02-64422CAE2315}" name="CanBeSuggested" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BCABB276-88BA-4F24-A0D9-15F6C263304F}" name="Table61410" displayName="Table61410" ref="N2:Q5" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BCABB276-88BA-4F24-A0D9-15F6C263304F}" name="Table61410" displayName="Table61410" ref="N2:Q5" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" tableBorderDxfId="93">
   <autoFilter ref="N2:Q5" xr:uid="{BCABB276-88BA-4F24-A0D9-15F6C263304F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5EB3FF8F-A636-4EEE-B8E1-1807AA06E054}" name="Id" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{CEAAA849-0E1B-4880-BB0D-7B68048D946C}" name="QuizId" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{DAED52E6-0B97-493B-8C38-2D2C83FDE3CC}" name="QuestionId" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{1B02BC0F-6221-4E41-A04C-917A41872E22}" name="Order" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{5EB3FF8F-A636-4EEE-B8E1-1807AA06E054}" name="Id" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{CEAAA849-0E1B-4880-BB0D-7B68048D946C}" name="QuizId" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{DAED52E6-0B97-493B-8C38-2D2C83FDE3CC}" name="QuestionId" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{1B02BC0F-6221-4E41-A04C-917A41872E22}" name="Order" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2133,8 +2664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A88412-2F2D-4255-B565-F6FDBB99DF9D}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2143,18 +2674,18 @@
     <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" style="1" customWidth="1"/>
     <col min="14" max="14" width="8.88671875" style="1"/>
     <col min="15" max="15" width="11" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="11.6640625" style="1" customWidth="1"/>
     <col min="18" max="18" width="8.88671875" style="1" customWidth="1"/>
     <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -2167,7 +2698,7 @@
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -2181,10 +2712,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>2</v>
@@ -2202,30 +2733,30 @@
         <v>8</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
+        <v>85</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="D3" s="9">
         <v>45590</v>
@@ -2237,10 +2768,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -2276,10 +2807,10 @@
         <v>2</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
@@ -2315,10 +2846,10 @@
         <v>3</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2">
         <v>2</v>
@@ -2344,37 +2875,59 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H7" s="5"/>
+      <c r="K7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:17" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,7 +2935,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -2403,19 +2956,29 @@
       <c r="I9" s="2">
         <v>1</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>67</v>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="N9" s="7">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>2</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -2436,19 +2999,25 @@
       <c r="I10" s="2">
         <v>2</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>68</v>
+      <c r="K10" s="8">
+        <v>2</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="N10" s="8">
+        <v>2</v>
+      </c>
       <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>3</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -2469,10 +3038,18 @@
       <c r="I11" s="2">
         <v>3</v>
       </c>
-      <c r="L11" s="2"/>
+      <c r="K11" s="7">
+        <v>3</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="N11" s="7">
+        <v>3</v>
+      </c>
       <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L12" s="2"/>
@@ -2480,43 +3057,61 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="J13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="5"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="M13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="5"/>
       <c r="O13" s="2"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="M14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,16 +3119,16 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E15" s="7">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G15" s="2">
         <v>0.25</v>
@@ -2541,9 +3136,19 @@
       <c r="H15" s="2">
         <v>1</v>
       </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="M15" s="7">
+        <v>1</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,16 +3156,16 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E16" s="8">
         <v>2</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G16" s="2">
         <v>0.5</v>
@@ -2568,13 +3173,25 @@
       <c r="H16" s="2">
         <v>5</v>
       </c>
+      <c r="J16" s="8">
+        <v>2</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" s="8">
+        <v>2</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -2583,7 +3200,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -2591,44 +3208,76 @@
       <c r="H17" s="2">
         <v>10</v>
       </c>
+      <c r="J17" s="7">
+        <v>3</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M17" s="7">
+        <v>3</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
     </row>
-    <row r="20" spans="1:11" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E21" s="9">
         <v>45566</v>
@@ -2636,70 +3285,121 @@
       <c r="F21" s="9">
         <v>45566</v>
       </c>
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>2</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="9">
+        <v>45566</v>
+      </c>
+      <c r="F22" s="9">
+        <v>45566</v>
+      </c>
+      <c r="H22" s="8">
+        <v>2</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2</v>
+      </c>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>3</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="9">
+        <v>45566</v>
+      </c>
+      <c r="F23" s="9">
+        <v>45566</v>
+      </c>
+      <c r="H23" s="7">
+        <v>3</v>
+      </c>
+      <c r="I23" s="2">
+        <v>3</v>
+      </c>
+      <c r="J23" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="G25" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:16" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="G25" s="12" t="s">
+      <c r="D26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="12"/>
+      <c r="J26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="26" spans="1:11" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>1</v>
       </c>
@@ -2728,17 +3428,25 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>2</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>25</v>
+      </c>
+      <c r="E28" s="9">
+        <v>45591</v>
+      </c>
       <c r="G28" s="8">
         <v>2</v>
       </c>
@@ -2749,20 +3457,28 @@
         <v>2</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>3</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>25</v>
+      </c>
+      <c r="E29" s="9">
+        <v>45592</v>
+      </c>
       <c r="G29" s="7">
         <v>3</v>
       </c>
@@ -2776,7 +3492,7 @@
         <v>3</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2785,12 +3501,10 @@
     <mergeCell ref="G25:H25"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C21" r:id="rId1" xr:uid="{C70B09A3-E467-412B-BCD9-4CFDD346099B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId2"/>
-  <tableParts count="10">
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <tableParts count="15">
+    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
@@ -2801,6 +3515,10 @@
     <tablePart r:id="rId10"/>
     <tablePart r:id="rId11"/>
     <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Quiz challenge/Quiz simple data.xlsx
+++ b/Quiz challenge/Quiz simple data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mentorship_Program\Quiz challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD2EE9C-A49D-4DD0-8845-86E7E99D5DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF17E13D-445C-41B3-AC3E-A22B2B9FBE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C43A32B-1E6E-4A0B-8D6F-624FBD4948C3}"/>
   </bookViews>
@@ -435,9 +435,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -445,6 +442,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,98 +490,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <strike val="0"/>
         <outline val="0"/>
@@ -637,6 +545,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <strike val="0"/>
         <outline val="0"/>
@@ -652,6 +579,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <strike val="0"/>
@@ -669,6 +603,22 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -703,6 +653,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <strike val="0"/>
@@ -736,6 +693,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <strike val="0"/>
         <outline val="0"/>
@@ -751,6 +727,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <strike val="0"/>
@@ -768,25 +751,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <strike val="0"/>
         <outline val="0"/>
@@ -803,6 +767,44 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <strike val="0"/>
         <outline val="0"/>
@@ -818,6 +820,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <strike val="0"/>
@@ -832,79 +841,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1036,6 +972,25 @@
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1051,6 +1006,63 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <strike val="0"/>
         <outline val="0"/>
@@ -1066,61 +1078,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1152,6 +1114,86 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1168,87 +1210,61 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1267,6 +1283,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <strike val="0"/>
@@ -1284,44 +1307,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <strike val="0"/>
         <outline val="0"/>
@@ -1338,38 +1323,60 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1593,6 +1600,25 @@
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1608,6 +1634,63 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <strike val="0"/>
         <outline val="0"/>
@@ -1623,61 +1706,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1713,6 +1746,44 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <strike val="0"/>
         <outline val="0"/>
@@ -1728,42 +1799,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1780,25 +1820,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1947,136 +1968,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="7"/>
@@ -2084,60 +1975,169 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2153,161 +2153,161 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A79962B-AEC1-4BA2-8BBE-60DA57A5CFBD}" name="Table1" displayName="Table1" ref="A2:E5" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A79962B-AEC1-4BA2-8BBE-60DA57A5CFBD}" name="Table1" displayName="Table1" ref="A2:E5" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
   <autoFilter ref="A2:E5" xr:uid="{0A79962B-AEC1-4BA2-8BBE-60DA57A5CFBD}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F238FED4-8AD9-415E-BF00-9C7B319C1400}" name="Id" dataDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{E0D6CABF-B5D0-4825-9E10-24C9F93DB042}" name="Title" dataDxfId="87"/>
-    <tableColumn id="3" xr3:uid="{6B319D20-A60B-4504-9908-A8CF0C774521}" name="Description" dataDxfId="86"/>
-    <tableColumn id="4" xr3:uid="{AB97B883-C760-4355-97E9-1D0BC51D23A3}" name="CreatedAt" dataDxfId="85"/>
-    <tableColumn id="5" xr3:uid="{773CB633-5043-4D94-8C79-DA10214C4278}" name="TimeLimit" dataDxfId="84"/>
+    <tableColumn id="1" xr3:uid="{F238FED4-8AD9-415E-BF00-9C7B319C1400}" name="Id" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{E0D6CABF-B5D0-4825-9E10-24C9F93DB042}" name="Title" dataDxfId="94"/>
+    <tableColumn id="3" xr3:uid="{6B319D20-A60B-4504-9908-A8CF0C774521}" name="Description" dataDxfId="93"/>
+    <tableColumn id="4" xr3:uid="{AB97B883-C760-4355-97E9-1D0BC51D23A3}" name="CreatedAt" dataDxfId="92"/>
+    <tableColumn id="5" xr3:uid="{773CB633-5043-4D94-8C79-DA10214C4278}" name="TimeLimit" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AEB1B0AB-8A75-404F-AC46-C9C83A408145}" name="Table4116" displayName="Table4116" ref="G26:K29" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AEB1B0AB-8A75-404F-AC46-C9C83A408145}" name="Table4116" displayName="Table4116" ref="G26:K29" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="G26:K29" xr:uid="{AEB1B0AB-8A75-404F-AC46-C9C83A408145}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F53C790D-B82B-4BAF-8ED9-8E9B5E30319B}" name="Id" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{56133213-8380-4969-A3B5-7B121D24AC10}" name="UserQuizId " dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{939056A5-287C-41B8-AD54-CC6B7E027FE8}" name="QuestionId " dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{54E8C5D0-0929-4C3C-BBFE-434E783DC4F0}" name="AnswerId " dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{CA923F4E-9135-4650-820C-838E8B063852}" name="FreeText " dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{F53C790D-B82B-4BAF-8ED9-8E9B5E30319B}" name="Id" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{56133213-8380-4969-A3B5-7B121D24AC10}" name="UserQuizId " dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{939056A5-287C-41B8-AD54-CC6B7E027FE8}" name="QuestionId " dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{54E8C5D0-0929-4C3C-BBFE-434E783DC4F0}" name="AnswerId " dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{CA923F4E-9135-4650-820C-838E8B063852}" name="FreeText " dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5EF00002-90ED-499C-A6B7-295B92CCAD08}" name="Table791339" displayName="Table791339" ref="H20:J23" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5EF00002-90ED-499C-A6B7-295B92CCAD08}" name="Table791339" displayName="Table791339" ref="H20:J23" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24">
   <autoFilter ref="H20:J23" xr:uid="{5EF00002-90ED-499C-A6B7-295B92CCAD08}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{95A5F424-E322-4E19-BD04-574E4757D985}" name="Id" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{F47EAF99-A848-4F78-B3CF-8B338BCC4322}" name="UserId" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{8E39D621-8D60-49C1-9B93-416027E720CC}" name="RoleId" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{95A5F424-E322-4E19-BD04-574E4757D985}" name="Id" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{F47EAF99-A848-4F78-B3CF-8B338BCC4322}" name="UserId" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{8E39D621-8D60-49C1-9B93-416027E720CC}" name="RoleId" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3F1D2D8D-F15C-44EF-A0DC-AADD7EB5D9DD}" name="Table79133914" displayName="Table79133914" ref="J14:K17" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3F1D2D8D-F15C-44EF-A0DC-AADD7EB5D9DD}" name="Table79133914" displayName="Table79133914" ref="J14:K17" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="J14:K17" xr:uid="{3F1D2D8D-F15C-44EF-A0DC-AADD7EB5D9DD}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C6F3F560-D724-4DE4-ABDC-739035A53B46}" name="Id" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{8305E703-F7D3-4F2F-BBAD-2F1F7B3FF6CD}" name="RoleName" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{C6F3F560-D724-4DE4-ABDC-739035A53B46}" name="Id" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{8305E703-F7D3-4F2F-BBAD-2F1F7B3FF6CD}" name="RoleName" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{758FCF58-11CF-4F6E-BB37-CBCB4FDD9179}" name="Table7913391415" displayName="Table7913391415" ref="M14:N17" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{758FCF58-11CF-4F6E-BB37-CBCB4FDD9179}" name="Table7913391415" displayName="Table7913391415" ref="M14:N17" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="M14:N17" xr:uid="{758FCF58-11CF-4F6E-BB37-CBCB4FDD9179}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C2533080-054E-44EF-A66B-1FF609F85487}" name="Id" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{7AE9E73D-B773-4753-A6F3-9EF8AF42E6CE}" name="TypeName" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{C2533080-054E-44EF-A66B-1FF609F85487}" name="Id" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{7AE9E73D-B773-4753-A6F3-9EF8AF42E6CE}" name="TypeName" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{E20F82DB-463C-45EB-86AA-455A74ECDFCB}" name="Table791339141516" displayName="Table791339141516" ref="K8:L11" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{E20F82DB-463C-45EB-86AA-455A74ECDFCB}" name="Table791339141516" displayName="Table791339141516" ref="K8:L11" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="K8:L11" xr:uid="{E20F82DB-463C-45EB-86AA-455A74ECDFCB}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C7A1C32B-C429-4703-A9AA-39EC009955C1}" name="Id" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{7A920786-0E2D-4329-81AA-1DAE95E5D364}" name="TypeName" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{C7A1C32B-C429-4703-A9AA-39EC009955C1}" name="Id" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{7A920786-0E2D-4329-81AA-1DAE95E5D364}" name="TypeName" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{946485ED-02FC-46A8-8EF9-800E43C9FAA1}" name="Table7913317" displayName="Table7913317" ref="N8:P11" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{946485ED-02FC-46A8-8EF9-800E43C9FAA1}" name="Table7913317" displayName="Table7913317" ref="N8:P11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="N8:P11" xr:uid="{946485ED-02FC-46A8-8EF9-800E43C9FAA1}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FB3FB424-4531-48FD-A206-D2957E2A26B0}" name="Id" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{0A967AD0-0A48-4A60-B1C6-C853FCAEC469}" name="QuizId" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{F5E411F8-4FC0-4725-943A-733B504B7A16}" name="TagId" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{FB3FB424-4531-48FD-A206-D2957E2A26B0}" name="Id" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{0A967AD0-0A48-4A60-B1C6-C853FCAEC469}" name="QuizId" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{F5E411F8-4FC0-4725-943A-733B504B7A16}" name="TagId" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9237A2E-255C-4FAC-BE16-9DC8EE8ED36E}" name="Table3" displayName="Table3" ref="G2:L5" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74" tableBorderDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9237A2E-255C-4FAC-BE16-9DC8EE8ED36E}" name="Table3" displayName="Table3" ref="G2:L5" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89" tableBorderDxfId="88">
   <autoFilter ref="G2:L5" xr:uid="{B9237A2E-255C-4FAC-BE16-9DC8EE8ED36E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{11A3F043-76AA-497A-8E70-04B4EEFC231A}" name="Id" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{D440EAB9-2CA3-43CA-9FA6-D491B473723D}" name="Content" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{B76291C2-CD8B-4555-83B5-1C9882F49F3C}" name="Format" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{86322B2A-4305-45A0-80DA-5F1A034A190A}" name="LevelId" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{7FAC9DF3-7A40-4212-B353-A4F4CE9CCB6F}" name="TopicId" dataDxfId="77"/>
-    <tableColumn id="6" xr3:uid="{E1D4D179-9F5D-466C-B4DF-CFA76EAEB4B7}" name="TypeId" dataDxfId="76"/>
+    <tableColumn id="1" xr3:uid="{11A3F043-76AA-497A-8E70-04B4EEFC231A}" name="Id" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{D440EAB9-2CA3-43CA-9FA6-D491B473723D}" name="Content" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{B76291C2-CD8B-4555-83B5-1C9882F49F3C}" name="Format" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{86322B2A-4305-45A0-80DA-5F1A034A190A}" name="LevelId" dataDxfId="84"/>
+    <tableColumn id="5" xr3:uid="{7FAC9DF3-7A40-4212-B353-A4F4CE9CCB6F}" name="TopicId" dataDxfId="83"/>
+    <tableColumn id="6" xr3:uid="{E1D4D179-9F5D-466C-B4DF-CFA76EAEB4B7}" name="TypeId" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D07F7F1F-0C11-4420-86ED-32ADFC35D176}" name="Table6" displayName="Table6" ref="A14:C17" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69" tableBorderDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D07F7F1F-0C11-4420-86ED-32ADFC35D176}" name="Table6" displayName="Table6" ref="A14:C17" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80" tableBorderDxfId="79">
   <autoFilter ref="A14:C17" xr:uid="{D07F7F1F-0C11-4420-86ED-32ADFC35D176}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9C6E43C9-D9C3-4FF2-B9D8-AF875E68B807}" name="Id" dataDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{2FF6299F-DC71-4BD0-AB90-FAAD1B4B5A53}" name="Name" dataDxfId="72"/>
-    <tableColumn id="3" xr3:uid="{ABC80DC0-4DAE-40AC-AF3F-0A7147347D49}" name="ParentTopicID" dataDxfId="71"/>
+    <tableColumn id="1" xr3:uid="{9C6E43C9-D9C3-4FF2-B9D8-AF875E68B807}" name="Id" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{2FF6299F-DC71-4BD0-AB90-FAAD1B4B5A53}" name="Name" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{ABC80DC0-4DAE-40AC-AF3F-0A7147347D49}" name="ParentTopicID" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{09B70181-5D84-477D-BD87-E795B37276C4}" name="Table7" displayName="Table7" ref="E14:H17" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63" tableBorderDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{09B70181-5D84-477D-BD87-E795B37276C4}" name="Table7" displayName="Table7" ref="E14:H17" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74" tableBorderDxfId="73">
   <autoFilter ref="E14:H17" xr:uid="{09B70181-5D84-477D-BD87-E795B37276C4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{328F0973-54AB-4F4E-B9DF-38A92B7D0EB7}" name="Id" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{D0E3492C-A244-453E-ADF6-AC2921F6BE53}" name="LevelName" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{32553B2B-51C8-4027-B7F6-F78571A9A039}" name="ScoreWeight" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{144C7DD5-B5F0-445F-9D2E-440C8ABE9A42}" name="TimeConstraint" dataDxfId="65"/>
+    <tableColumn id="1" xr3:uid="{328F0973-54AB-4F4E-B9DF-38A92B7D0EB7}" name="Id" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{D0E3492C-A244-453E-ADF6-AC2921F6BE53}" name="LevelName" dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{32553B2B-51C8-4027-B7F6-F78571A9A039}" name="ScoreWeight" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{144C7DD5-B5F0-445F-9D2E-440C8ABE9A42}" name="TimeConstraint" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B2773DDF-A39C-44D7-AEDC-CF8D980FB8FF}" name="Table411" displayName="Table411" ref="A26:E29" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B2773DDF-A39C-44D7-AEDC-CF8D980FB8FF}" name="Table411" displayName="Table411" ref="A26:E29" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="A26:E29" xr:uid="{B2773DDF-A39C-44D7-AEDC-CF8D980FB8FF}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BA579B0D-99C8-4846-AA2A-58710BEE3F30}" name="Id" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{F494C43B-BA5A-40CF-A7AE-537CD9375379}" name="UserID" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{68945211-9457-454C-A551-79DA66D3771B}" name="QuizID" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{A68FFC5C-3CC3-4441-9453-7E98D5CC6602}" name="CompletionTime" dataDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{F002231A-EC2F-48C4-A011-265F516024DA}" name="AttemptAt" dataDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{BA579B0D-99C8-4846-AA2A-58710BEE3F30}" name="Id" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{F494C43B-BA5A-40CF-A7AE-537CD9375379}" name="UserID" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{68945211-9457-454C-A551-79DA66D3771B}" name="QuizID" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{A68FFC5C-3CC3-4441-9453-7E98D5CC6602}" name="CompletionTime" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{F002231A-EC2F-48C4-A011-265F516024DA}" name="AttemptAt" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{42F24B4A-E5FC-4580-AC79-7A87B6E74532}" name="Table41012" displayName="Table41012" ref="A20:F23" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{42F24B4A-E5FC-4580-AC79-7A87B6E74532}" name="Table41012" displayName="Table41012" ref="A20:F23" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <autoFilter ref="A20:F23" xr:uid="{42F24B4A-E5FC-4580-AC79-7A87B6E74532}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AB2F2B92-4F5E-45D5-94FB-ADB8435B9566}" name="Id" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{B9827B33-45BE-47C1-A171-29F23AD74DC2}" name="UserName" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{B49FE75E-62B6-4D37-8C90-5095A776B904}" name="Column1" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{D74DA2E3-95DA-43B1-B28C-B64A14ABA8B1}" name="Password" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{61E76584-885D-4BCA-A61B-05EE3807BA29}" name="CreatedAt" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{C5B91E7E-7207-4164-A092-76CF2F672774}" name="UpdateAt" dataDxfId="53"/>
+    <tableColumn id="1" xr3:uid="{AB2F2B92-4F5E-45D5-94FB-ADB8435B9566}" name="Id" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{B9827B33-45BE-47C1-A171-29F23AD74DC2}" name="UserName" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{B49FE75E-62B6-4D37-8C90-5095A776B904}" name="Column1" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{D74DA2E3-95DA-43B1-B28C-B64A14ABA8B1}" name="Password" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{61E76584-885D-4BCA-A61B-05EE3807BA29}" name="CreatedAt" dataDxfId="55"/>
+    <tableColumn id="6" xr3:uid="{C5B91E7E-7207-4164-A092-76CF2F672774}" name="UpdateAt" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A3741F9-7340-4634-958D-243B2CB30081}" name="Table79133" displayName="Table79133" ref="G8:I11" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46" tableBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A3741F9-7340-4634-958D-243B2CB30081}" name="Table79133" displayName="Table79133" ref="G8:I11" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52" tableBorderDxfId="51">
   <autoFilter ref="G8:I11" xr:uid="{0A3741F9-7340-4634-958D-243B2CB30081}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{31F14D34-66D8-41C0-A3EA-4754B439DA63}" name="Id" dataDxfId="50"/>
@@ -2319,7 +2319,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1FA08D23-38C9-4F9D-A38F-2FAD175CEAC5}" name="Table4" displayName="Table4" ref="A8:E11" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1FA08D23-38C9-4F9D-A38F-2FAD175CEAC5}" name="Table4" displayName="Table4" ref="A8:E11" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A8:E11" xr:uid="{1FA08D23-38C9-4F9D-A38F-2FAD175CEAC5}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6D940C02-9530-4EAD-9CFB-AEBCF3BB6A31}" name="Id" dataDxfId="45"/>
@@ -2333,13 +2333,13 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BCABB276-88BA-4F24-A0D9-15F6C263304F}" name="Table61410" displayName="Table61410" ref="N2:Q5" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" tableBorderDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BCABB276-88BA-4F24-A0D9-15F6C263304F}" name="Table61410" displayName="Table61410" ref="N2:Q5" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="38">
   <autoFilter ref="N2:Q5" xr:uid="{BCABB276-88BA-4F24-A0D9-15F6C263304F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5EB3FF8F-A636-4EEE-B8E1-1807AA06E054}" name="Id" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{CEAAA849-0E1B-4880-BB0D-7B68048D946C}" name="QuizId" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{DAED52E6-0B97-493B-8C38-2D2C83FDE3CC}" name="QuestionId" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{1B02BC0F-6221-4E41-A04C-917A41872E22}" name="Order" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{5EB3FF8F-A636-4EEE-B8E1-1807AA06E054}" name="Id" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{CEAAA849-0E1B-4880-BB0D-7B68048D946C}" name="QuizId" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{DAED52E6-0B97-493B-8C38-2D2C83FDE3CC}" name="QuestionId" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{1B02BC0F-6221-4E41-A04C-917A41872E22}" name="Order" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2665,7 +2665,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2755,7 +2755,7 @@
       <c r="B3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="9">
@@ -3074,8 +3074,8 @@
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:17" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -3229,8 +3229,8 @@
         <v>63</v>
       </c>
       <c r="I19" s="5"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
     </row>
     <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
@@ -3263,8 +3263,8 @@
       <c r="M20" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
     </row>
     <row r="21" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
@@ -3294,8 +3294,8 @@
       <c r="J21" s="2">
         <v>1</v>
       </c>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
     </row>
     <row r="22" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
@@ -3325,8 +3325,8 @@
       <c r="J22" s="2">
         <v>2</v>
       </c>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
@@ -3358,14 +3358,14 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="G25" s="11" t="s">
+      <c r="B25" s="14"/>
+      <c r="G25" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="11"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:16" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">

--- a/Quiz challenge/Quiz simple data.xlsx
+++ b/Quiz challenge/Quiz simple data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mentorship_Program\Quiz challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF17E13D-445C-41B3-AC3E-A22B2B9FBE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DC54DA-BEE1-4F1B-BC52-E8A9021FEB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C43A32B-1E6E-4A0B-8D6F-624FBD4948C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="94">
   <si>
     <t>Quiz</t>
   </si>
@@ -315,6 +315,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Repository topic thiếu ParentTopicID</t>
   </si>
 </sst>
 </file>
@@ -2665,7 +2668,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -3366,6 +3369,9 @@
         <v>41</v>
       </c>
       <c r="H25" s="14"/>
+      <c r="O25" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="26" spans="1:16" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">

--- a/Quiz challenge/Quiz simple data.xlsx
+++ b/Quiz challenge/Quiz simple data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mentorship_Program\Quiz challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DC54DA-BEE1-4F1B-BC52-E8A9021FEB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D13A411-D566-47D0-9C1E-CCD4A7777B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C43A32B-1E6E-4A0B-8D6F-624FBD4948C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="95">
   <si>
     <t>Quiz</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>Repository topic thiếu ParentTopicID</t>
+  </si>
+  <si>
+    <t>Tiếp tục với các Services</t>
   </si>
 </sst>
 </file>
@@ -2668,7 +2671,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -3369,7 +3372,7 @@
         <v>41</v>
       </c>
       <c r="H25" s="14"/>
-      <c r="O25" s="2" t="s">
+      <c r="N25" s="10" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3403,6 +3406,9 @@
       </c>
       <c r="K26" s="1" t="s">
         <v>45</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">

--- a/Quiz challenge/Quiz simple data.xlsx
+++ b/Quiz challenge/Quiz simple data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mentorship_Program\Quiz challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D13A411-D566-47D0-9C1E-CCD4A7777B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF02FE4-3D62-4FB0-A898-FCDB35DDF525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C43A32B-1E6E-4A0B-8D6F-624FBD4948C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="99">
   <si>
     <t>Quiz</t>
   </si>
@@ -317,27 +317,31 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Repository topic thiếu ParentTopicID</t>
-  </si>
-  <si>
-    <t>Tiếp tục với các Services</t>
+    <t>Thiếu table lưu điểm cho quiz</t>
+  </si>
+  <si>
+    <t>QuizResult</t>
+  </si>
+  <si>
+    <t>StartQuiz</t>
+  </si>
+  <si>
+    <t>SubmitAnswer</t>
+  </si>
+  <si>
+    <t>EndQuiz</t>
+  </si>
+  <si>
+    <t>GetQuizResults</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -409,13 +413,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -423,29 +437,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -459,44 +460,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -511,15 +474,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -535,7 +491,45 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -552,6 +546,38 @@
     <dxf>
       <font>
         <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -570,7 +596,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -585,15 +611,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -609,7 +628,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -644,7 +663,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -659,15 +678,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -683,7 +695,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -718,7 +730,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -733,15 +745,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -757,7 +762,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -811,7 +816,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -826,15 +831,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -850,99 +867,83 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -977,26 +978,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1013,63 +995,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1084,15 +1009,65 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1108,7 +1083,23 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1188,7 +1179,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1204,23 +1195,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1237,44 +1212,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1289,15 +1226,46 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1313,7 +1281,26 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1424,7 +1411,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1459,26 +1446,26 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1570,7 +1557,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1605,26 +1592,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1641,63 +1609,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1712,15 +1623,65 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1736,7 +1697,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1753,44 +1714,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1805,15 +1728,46 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1829,7 +1783,26 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1940,7 +1913,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1974,6 +1947,136 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="7"/>
@@ -1981,169 +2084,67 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2159,58 +2160,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A79962B-AEC1-4BA2-8BBE-60DA57A5CFBD}" name="Table1" displayName="Table1" ref="A2:E5" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A79962B-AEC1-4BA2-8BBE-60DA57A5CFBD}" name="Table1" displayName="Table1" ref="A2:E5" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
   <autoFilter ref="A2:E5" xr:uid="{0A79962B-AEC1-4BA2-8BBE-60DA57A5CFBD}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F238FED4-8AD9-415E-BF00-9C7B319C1400}" name="Id" dataDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{E0D6CABF-B5D0-4825-9E10-24C9F93DB042}" name="Title" dataDxfId="94"/>
-    <tableColumn id="3" xr3:uid="{6B319D20-A60B-4504-9908-A8CF0C774521}" name="Description" dataDxfId="93"/>
-    <tableColumn id="4" xr3:uid="{AB97B883-C760-4355-97E9-1D0BC51D23A3}" name="CreatedAt" dataDxfId="92"/>
-    <tableColumn id="5" xr3:uid="{773CB633-5043-4D94-8C79-DA10214C4278}" name="TimeLimit" dataDxfId="91"/>
+    <tableColumn id="1" xr3:uid="{F238FED4-8AD9-415E-BF00-9C7B319C1400}" name="Id" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{E0D6CABF-B5D0-4825-9E10-24C9F93DB042}" name="Title" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{6B319D20-A60B-4504-9908-A8CF0C774521}" name="Description" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{AB97B883-C760-4355-97E9-1D0BC51D23A3}" name="CreatedAt" dataDxfId="84"/>
+    <tableColumn id="5" xr3:uid="{773CB633-5043-4D94-8C79-DA10214C4278}" name="TimeLimit" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AEB1B0AB-8A75-404F-AC46-C9C83A408145}" name="Table4116" displayName="Table4116" ref="G26:K29" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AEB1B0AB-8A75-404F-AC46-C9C83A408145}" name="Table4116" displayName="Table4116" ref="G26:K29" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="G26:K29" xr:uid="{AEB1B0AB-8A75-404F-AC46-C9C83A408145}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F53C790D-B82B-4BAF-8ED9-8E9B5E30319B}" name="Id" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{56133213-8380-4969-A3B5-7B121D24AC10}" name="UserQuizId " dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{939056A5-287C-41B8-AD54-CC6B7E027FE8}" name="QuestionId " dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{54E8C5D0-0929-4C3C-BBFE-434E783DC4F0}" name="AnswerId " dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{CA923F4E-9135-4650-820C-838E8B063852}" name="FreeText " dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{F53C790D-B82B-4BAF-8ED9-8E9B5E30319B}" name="Id" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{56133213-8380-4969-A3B5-7B121D24AC10}" name="UserQuizId " dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{939056A5-287C-41B8-AD54-CC6B7E027FE8}" name="QuestionId " dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{54E8C5D0-0929-4C3C-BBFE-434E783DC4F0}" name="AnswerId " dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{CA923F4E-9135-4650-820C-838E8B063852}" name="FreeText " dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5EF00002-90ED-499C-A6B7-295B92CCAD08}" name="Table791339" displayName="Table791339" ref="H20:J23" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5EF00002-90ED-499C-A6B7-295B92CCAD08}" name="Table791339" displayName="Table791339" ref="H20:J23" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="92">
   <autoFilter ref="H20:J23" xr:uid="{5EF00002-90ED-499C-A6B7-295B92CCAD08}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{95A5F424-E322-4E19-BD04-574E4757D985}" name="Id" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{F47EAF99-A848-4F78-B3CF-8B338BCC4322}" name="UserId" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{8E39D621-8D60-49C1-9B93-416027E720CC}" name="RoleId" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{95A5F424-E322-4E19-BD04-574E4757D985}" name="Id" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{F47EAF99-A848-4F78-B3CF-8B338BCC4322}" name="UserId" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{8E39D621-8D60-49C1-9B93-416027E720CC}" name="RoleId" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3F1D2D8D-F15C-44EF-A0DC-AADD7EB5D9DD}" name="Table79133914" displayName="Table79133914" ref="J14:K17" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3F1D2D8D-F15C-44EF-A0DC-AADD7EB5D9DD}" name="Table79133914" displayName="Table79133914" ref="J14:K17" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="91">
   <autoFilter ref="J14:K17" xr:uid="{3F1D2D8D-F15C-44EF-A0DC-AADD7EB5D9DD}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C6F3F560-D724-4DE4-ABDC-739035A53B46}" name="Id" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{8305E703-F7D3-4F2F-BBAD-2F1F7B3FF6CD}" name="RoleName" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{C6F3F560-D724-4DE4-ABDC-739035A53B46}" name="Id" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{8305E703-F7D3-4F2F-BBAD-2F1F7B3FF6CD}" name="RoleName" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{758FCF58-11CF-4F6E-BB37-CBCB4FDD9179}" name="Table7913391415" displayName="Table7913391415" ref="M14:N17" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{758FCF58-11CF-4F6E-BB37-CBCB4FDD9179}" name="Table7913391415" displayName="Table7913391415" ref="M14:N17" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="90">
   <autoFilter ref="M14:N17" xr:uid="{758FCF58-11CF-4F6E-BB37-CBCB4FDD9179}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C2533080-054E-44EF-A66B-1FF609F85487}" name="Id" dataDxfId="12"/>
@@ -2221,131 +2222,131 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{E20F82DB-463C-45EB-86AA-455A74ECDFCB}" name="Table791339141516" displayName="Table791339141516" ref="K8:L11" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{E20F82DB-463C-45EB-86AA-455A74ECDFCB}" name="Table791339141516" displayName="Table791339141516" ref="K8:L11" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="89">
   <autoFilter ref="K8:L11" xr:uid="{E20F82DB-463C-45EB-86AA-455A74ECDFCB}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C7A1C32B-C429-4703-A9AA-39EC009955C1}" name="Id" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{7A920786-0E2D-4329-81AA-1DAE95E5D364}" name="TypeName" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{C7A1C32B-C429-4703-A9AA-39EC009955C1}" name="Id" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{7A920786-0E2D-4329-81AA-1DAE95E5D364}" name="TypeName" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{946485ED-02FC-46A8-8EF9-800E43C9FAA1}" name="Table7913317" displayName="Table7913317" ref="N8:P11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{946485ED-02FC-46A8-8EF9-800E43C9FAA1}" name="Table7913317" displayName="Table7913317" ref="N8:P11" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="88">
   <autoFilter ref="N8:P11" xr:uid="{946485ED-02FC-46A8-8EF9-800E43C9FAA1}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FB3FB424-4531-48FD-A206-D2957E2A26B0}" name="Id" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{0A967AD0-0A48-4A60-B1C6-C853FCAEC469}" name="QuizId" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{F5E411F8-4FC0-4725-943A-733B504B7A16}" name="TagId" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{FB3FB424-4531-48FD-A206-D2957E2A26B0}" name="Id" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{0A967AD0-0A48-4A60-B1C6-C853FCAEC469}" name="QuizId" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{F5E411F8-4FC0-4725-943A-733B504B7A16}" name="TagId" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9237A2E-255C-4FAC-BE16-9DC8EE8ED36E}" name="Table3" displayName="Table3" ref="G2:L5" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89" tableBorderDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9237A2E-255C-4FAC-BE16-9DC8EE8ED36E}" name="Table3" displayName="Table3" ref="G2:L5" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" tableBorderDxfId="97">
   <autoFilter ref="G2:L5" xr:uid="{B9237A2E-255C-4FAC-BE16-9DC8EE8ED36E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{11A3F043-76AA-497A-8E70-04B4EEFC231A}" name="Id" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{D440EAB9-2CA3-43CA-9FA6-D491B473723D}" name="Content" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{B76291C2-CD8B-4555-83B5-1C9882F49F3C}" name="Format" dataDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{86322B2A-4305-45A0-80DA-5F1A034A190A}" name="LevelId" dataDxfId="84"/>
-    <tableColumn id="5" xr3:uid="{7FAC9DF3-7A40-4212-B353-A4F4CE9CCB6F}" name="TopicId" dataDxfId="83"/>
-    <tableColumn id="6" xr3:uid="{E1D4D179-9F5D-466C-B4DF-CFA76EAEB4B7}" name="TypeId" dataDxfId="82"/>
+    <tableColumn id="1" xr3:uid="{11A3F043-76AA-497A-8E70-04B4EEFC231A}" name="Id" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{D440EAB9-2CA3-43CA-9FA6-D491B473723D}" name="Content" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{B76291C2-CD8B-4555-83B5-1C9882F49F3C}" name="Format" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{86322B2A-4305-45A0-80DA-5F1A034A190A}" name="LevelId" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{7FAC9DF3-7A40-4212-B353-A4F4CE9CCB6F}" name="TopicId" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{E1D4D179-9F5D-466C-B4DF-CFA76EAEB4B7}" name="TypeId" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D07F7F1F-0C11-4420-86ED-32ADFC35D176}" name="Table6" displayName="Table6" ref="A14:C17" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80" tableBorderDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D07F7F1F-0C11-4420-86ED-32ADFC35D176}" name="Table6" displayName="Table6" ref="A14:C17" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68" tableBorderDxfId="96">
   <autoFilter ref="A14:C17" xr:uid="{D07F7F1F-0C11-4420-86ED-32ADFC35D176}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9C6E43C9-D9C3-4FF2-B9D8-AF875E68B807}" name="Id" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{2FF6299F-DC71-4BD0-AB90-FAAD1B4B5A53}" name="Name" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{ABC80DC0-4DAE-40AC-AF3F-0A7147347D49}" name="ParentTopicID" dataDxfId="76"/>
+    <tableColumn id="1" xr3:uid="{9C6E43C9-D9C3-4FF2-B9D8-AF875E68B807}" name="Id" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{2FF6299F-DC71-4BD0-AB90-FAAD1B4B5A53}" name="Name" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{ABC80DC0-4DAE-40AC-AF3F-0A7147347D49}" name="ParentTopicID" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{09B70181-5D84-477D-BD87-E795B37276C4}" name="Table7" displayName="Table7" ref="E14:H17" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74" tableBorderDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{09B70181-5D84-477D-BD87-E795B37276C4}" name="Table7" displayName="Table7" ref="E14:H17" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" tableBorderDxfId="95">
   <autoFilter ref="E14:H17" xr:uid="{09B70181-5D84-477D-BD87-E795B37276C4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{328F0973-54AB-4F4E-B9DF-38A92B7D0EB7}" name="Id" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{D0E3492C-A244-453E-ADF6-AC2921F6BE53}" name="LevelName" dataDxfId="71"/>
-    <tableColumn id="4" xr3:uid="{32553B2B-51C8-4027-B7F6-F78571A9A039}" name="ScoreWeight" dataDxfId="70"/>
-    <tableColumn id="5" xr3:uid="{144C7DD5-B5F0-445F-9D2E-440C8ABE9A42}" name="TimeConstraint" dataDxfId="69"/>
+    <tableColumn id="1" xr3:uid="{328F0973-54AB-4F4E-B9DF-38A92B7D0EB7}" name="Id" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{D0E3492C-A244-453E-ADF6-AC2921F6BE53}" name="LevelName" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{32553B2B-51C8-4027-B7F6-F78571A9A039}" name="ScoreWeight" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{144C7DD5-B5F0-445F-9D2E-440C8ABE9A42}" name="TimeConstraint" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B2773DDF-A39C-44D7-AEDC-CF8D980FB8FF}" name="Table411" displayName="Table411" ref="A26:E29" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B2773DDF-A39C-44D7-AEDC-CF8D980FB8FF}" name="Table411" displayName="Table411" ref="A26:E29" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
   <autoFilter ref="A26:E29" xr:uid="{B2773DDF-A39C-44D7-AEDC-CF8D980FB8FF}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BA579B0D-99C8-4846-AA2A-58710BEE3F30}" name="Id" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{F494C43B-BA5A-40CF-A7AE-537CD9375379}" name="UserID" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{68945211-9457-454C-A551-79DA66D3771B}" name="QuizID" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{A68FFC5C-3CC3-4441-9453-7E98D5CC6602}" name="CompletionTime" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{F002231A-EC2F-48C4-A011-265F516024DA}" name="AttemptAt" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{BA579B0D-99C8-4846-AA2A-58710BEE3F30}" name="Id" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{F494C43B-BA5A-40CF-A7AE-537CD9375379}" name="UserID" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{68945211-9457-454C-A551-79DA66D3771B}" name="QuizID" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{A68FFC5C-3CC3-4441-9453-7E98D5CC6602}" name="CompletionTime" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{F002231A-EC2F-48C4-A011-265F516024DA}" name="AttemptAt" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{42F24B4A-E5FC-4580-AC79-7A87B6E74532}" name="Table41012" displayName="Table41012" ref="A20:F23" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{42F24B4A-E5FC-4580-AC79-7A87B6E74532}" name="Table41012" displayName="Table41012" ref="A20:F23" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="A20:F23" xr:uid="{42F24B4A-E5FC-4580-AC79-7A87B6E74532}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AB2F2B92-4F5E-45D5-94FB-ADB8435B9566}" name="Id" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{B9827B33-45BE-47C1-A171-29F23AD74DC2}" name="UserName" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{B49FE75E-62B6-4D37-8C90-5095A776B904}" name="Column1" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{D74DA2E3-95DA-43B1-B28C-B64A14ABA8B1}" name="Password" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{61E76584-885D-4BCA-A61B-05EE3807BA29}" name="CreatedAt" dataDxfId="55"/>
-    <tableColumn id="6" xr3:uid="{C5B91E7E-7207-4164-A092-76CF2F672774}" name="UpdateAt" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{AB2F2B92-4F5E-45D5-94FB-ADB8435B9566}" name="Id" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{B9827B33-45BE-47C1-A171-29F23AD74DC2}" name="UserName" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{B49FE75E-62B6-4D37-8C90-5095A776B904}" name="Column1" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{D74DA2E3-95DA-43B1-B28C-B64A14ABA8B1}" name="Password" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{61E76584-885D-4BCA-A61B-05EE3807BA29}" name="CreatedAt" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{C5B91E7E-7207-4164-A092-76CF2F672774}" name="UpdateAt" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A3741F9-7340-4634-958D-243B2CB30081}" name="Table79133" displayName="Table79133" ref="G8:I11" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52" tableBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A3741F9-7340-4634-958D-243B2CB30081}" name="Table79133" displayName="Table79133" ref="G8:I11" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="94">
   <autoFilter ref="G8:I11" xr:uid="{0A3741F9-7340-4634-958D-243B2CB30081}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{31F14D34-66D8-41C0-A3EA-4754B439DA63}" name="Id" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{8E3A139A-5007-4A16-BB0C-C46739F67B30}" name="QuestionId" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{F32C6264-78B0-42EF-820B-362961B4B35B}" name="AnswerId" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{31F14D34-66D8-41C0-A3EA-4754B439DA63}" name="Id" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{8E3A139A-5007-4A16-BB0C-C46739F67B30}" name="QuestionId" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{F32C6264-78B0-42EF-820B-362961B4B35B}" name="AnswerId" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1FA08D23-38C9-4F9D-A38F-2FAD175CEAC5}" name="Table4" displayName="Table4" ref="A8:E11" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1FA08D23-38C9-4F9D-A38F-2FAD175CEAC5}" name="Table4" displayName="Table4" ref="A8:E11" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A8:E11" xr:uid="{1FA08D23-38C9-4F9D-A38F-2FAD175CEAC5}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6D940C02-9530-4EAD-9CFB-AEBCF3BB6A31}" name="Id" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{12869B36-21EC-4622-8455-75F60E2AD58B}" name="AnswerText" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{97B8C5D1-BBA2-4E43-902B-8228BD6EFBA7}" name="IsCorrect" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{415B0A9F-E9AC-4B8E-9FF6-5F36248C5433}" name="IsDynamic" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{13FBD282-3F29-4BAF-BB02-64422CAE2315}" name="CanBeSuggested" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{6D940C02-9530-4EAD-9CFB-AEBCF3BB6A31}" name="Id" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{12869B36-21EC-4622-8455-75F60E2AD58B}" name="AnswerText" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{97B8C5D1-BBA2-4E43-902B-8228BD6EFBA7}" name="IsCorrect" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{415B0A9F-E9AC-4B8E-9FF6-5F36248C5433}" name="IsDynamic" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{13FBD282-3F29-4BAF-BB02-64422CAE2315}" name="CanBeSuggested" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BCABB276-88BA-4F24-A0D9-15F6C263304F}" name="Table61410" displayName="Table61410" ref="N2:Q5" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BCABB276-88BA-4F24-A0D9-15F6C263304F}" name="Table61410" displayName="Table61410" ref="N2:Q5" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" tableBorderDxfId="93">
   <autoFilter ref="N2:Q5" xr:uid="{BCABB276-88BA-4F24-A0D9-15F6C263304F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5EB3FF8F-A636-4EEE-B8E1-1807AA06E054}" name="Id" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{CEAAA849-0E1B-4880-BB0D-7B68048D946C}" name="QuizId" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{DAED52E6-0B97-493B-8C38-2D2C83FDE3CC}" name="QuestionId" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{1B02BC0F-6221-4E41-A04C-917A41872E22}" name="Order" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{5EB3FF8F-A636-4EEE-B8E1-1807AA06E054}" name="Id" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{CEAAA849-0E1B-4880-BB0D-7B68048D946C}" name="QuizId" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{DAED52E6-0B97-493B-8C38-2D2C83FDE3CC}" name="QuestionId" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{1B02BC0F-6221-4E41-A04C-917A41872E22}" name="Order" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2670,8 +2671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A88412-2F2D-4255-B565-F6FDBB99DF9D}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2723,7 +2724,7 @@
       <c r="E2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -2741,7 +2742,7 @@
       <c r="L2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -2758,46 +2759,46 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="2">
         <v>45590</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>30</v>
       </c>
-      <c r="G3" s="7">
-        <v>1</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
         <v>3</v>
       </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="N3" s="7">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2">
-        <v>1</v>
-      </c>
-      <c r="P3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="2">
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2805,38 +2806,34 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="G4" s="8">
-        <v>2</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="G4" s="10">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2">
-        <v>2</v>
-      </c>
-      <c r="N4" s="8">
-        <v>2</v>
-      </c>
-      <c r="O4" s="2">
-        <v>1</v>
-      </c>
-      <c r="P4" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="2">
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+      <c r="N4" s="10">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2844,38 +2841,34 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="G5" s="7">
+      <c r="G5" s="9">
         <v>3</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="2">
-        <v>2</v>
-      </c>
-      <c r="K5" s="2">
-        <v>2</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="9">
         <v>3</v>
       </c>
-      <c r="O5" s="2">
-        <v>1</v>
-      </c>
-      <c r="P5" s="2">
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
         <v>3</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <v>3</v>
       </c>
     </row>
@@ -2883,20 +2876,20 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="11"/>
       <c r="K7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="O7" s="5"/>
+      <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:17" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2911,7 +2904,7 @@
       <c r="E8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -2920,13 +2913,13 @@
       <c r="I8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="O8" s="1" t="s">
@@ -2940,42 +2933,41 @@
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="K9" s="7">
-        <v>1</v>
-      </c>
-      <c r="L9" s="10" t="s">
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="7">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2">
-        <v>1</v>
-      </c>
-      <c r="P9" s="2">
+      <c r="N9" s="9">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2983,85 +2975,73 @@
       <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="8">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2">
-        <v>2</v>
-      </c>
-      <c r="K10" s="8">
-        <v>2</v>
-      </c>
-      <c r="L10" s="10" t="s">
+      <c r="G10" s="10">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="K10" s="10">
+        <v>2</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="8">
-        <v>2</v>
-      </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="N10" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="7">
+      <c r="G11" s="9">
         <v>3</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>3</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>3</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="9">
         <v>3</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="7">
+      <c r="N11" s="9">
         <v>3</v>
       </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -3070,21 +3050,19 @@
       <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="5" t="s">
+      <c r="K13" s="11"/>
+      <c r="M13" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="12"/>
+      <c r="N13" s="11"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="1:17" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -3093,7 +3071,7 @@
       <c r="C14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -3105,125 +3083,121 @@
       <c r="H14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="8" t="s">
         <v>2</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="9">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>0.25</v>
       </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="J15" s="7">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="9">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="7">
-        <v>1</v>
-      </c>
-      <c r="N15" s="10" t="s">
+      <c r="M15" s="9">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="10">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="8">
-        <v>2</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="E16" s="10">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>0.5</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>5</v>
       </c>
-      <c r="J16" s="8">
-        <v>2</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="10">
+        <v>2</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M16" s="8">
-        <v>2</v>
-      </c>
-      <c r="N16" s="10" t="s">
+      <c r="M16" s="10">
+        <v>2</v>
+      </c>
+      <c r="N16" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="A17" s="9">
         <v>3</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9">
         <v>3</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
         <v>10</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="9">
         <v>3</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="9">
         <v>3</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="N17" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3231,15 +3205,15 @@
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
     </row>
     <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3257,7 +3231,7 @@
       <c r="F20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="8" t="s">
         <v>2</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -3269,115 +3243,123 @@
       <c r="M20" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
     </row>
     <row r="21" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="9">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="2">
         <v>45566</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="2">
         <v>45566</v>
       </c>
-      <c r="H21" s="7">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1</v>
-      </c>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
+      <c r="H21" s="9">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
     </row>
     <row r="22" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>2</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="10">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="2">
         <v>45566</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="2">
         <v>45566</v>
       </c>
-      <c r="H22" s="8">
-        <v>2</v>
-      </c>
-      <c r="I22" s="2">
-        <v>2</v>
-      </c>
-      <c r="J22" s="2">
-        <v>2</v>
-      </c>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
+      <c r="H22" s="10">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+      <c r="A23" s="9">
         <v>3</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="2">
         <v>45566</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="2">
         <v>45566</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="9">
         <v>3</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="1">
         <v>3</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N24" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="G25" s="14" t="s">
+      <c r="B25" s="13"/>
+      <c r="G25" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="N25" s="10" t="s">
-        <v>93</v>
+      <c r="H25" s="13"/>
+      <c r="N25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -3392,7 +3374,7 @@
       <c r="E26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="7" t="s">
         <v>2</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -3407,103 +3389,110 @@
       <c r="K26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N26" s="10" t="s">
-        <v>94</v>
+      <c r="N26" s="3"/>
+      <c r="P26" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="A27" s="9">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
         <v>25</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="2">
         <v>45590</v>
       </c>
-      <c r="G27" s="7">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2">
-        <v>1</v>
-      </c>
-      <c r="I27" s="2">
-        <v>1</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="G27" s="9">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
-        <v>2</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="A28" s="10">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
         <v>25</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="2">
         <v>45591</v>
       </c>
-      <c r="G28" s="8">
-        <v>2</v>
-      </c>
-      <c r="H28" s="2">
-        <v>1</v>
-      </c>
-      <c r="I28" s="2">
-        <v>2</v>
-      </c>
-      <c r="J28" s="2" t="s">
+      <c r="G28" s="10">
+        <v>2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="K28" s="3" t="s">
         <v>62</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
+      <c r="A29" s="9">
         <v>3</v>
       </c>
-      <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
         <v>25</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="2">
         <v>45592</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="9">
         <v>3</v>
       </c>
-      <c r="H29" s="2">
-        <v>1</v>
-      </c>
-      <c r="I29" s="2">
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
         <v>3</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="1">
         <v>3</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3512,7 +3501,7 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="G25:H25"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <tableParts count="15">

--- a/Quiz challenge/Quiz simple data.xlsx
+++ b/Quiz challenge/Quiz simple data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mentorship_Program\Quiz challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF02FE4-3D62-4FB0-A898-FCDB35DDF525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01271C37-D1C2-4CEE-8414-3B4CC41DAF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C43A32B-1E6E-4A0B-8D6F-624FBD4948C3}"/>
+    <workbookView xWindow="-23148" yWindow="-120" windowWidth="23256" windowHeight="12456" xr2:uid="{7C43A32B-1E6E-4A0B-8D6F-624FBD4948C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="99">
   <si>
     <t>Quiz</t>
   </si>
@@ -317,22 +317,22 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Thiếu table lưu điểm cho quiz</t>
-  </si>
-  <si>
-    <t>QuizResult</t>
-  </si>
-  <si>
-    <t>StartQuiz</t>
-  </si>
-  <si>
-    <t>SubmitAnswer</t>
-  </si>
-  <si>
-    <t>EndQuiz</t>
-  </si>
-  <si>
-    <t>GetQuizResults</t>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>TotalQuestions</t>
+  </si>
+  <si>
+    <t>CorrectAnswers</t>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>GetQuizResults trong QuizService Lỗi</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -456,7 +456,159 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="98">
+  <dxfs count="103">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -474,6 +626,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <strike val="0"/>
@@ -492,44 +651,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -546,6 +667,25 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -560,6 +700,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <strike val="0"/>
@@ -578,6 +725,22 @@
     <dxf>
       <font>
         <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -611,6 +774,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <strike val="0"/>
@@ -659,7 +829,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -678,6 +848,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <strike val="0"/>
@@ -731,6 +908,25 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -745,6 +941,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <strike val="0"/>
@@ -759,95 +962,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -979,6 +1093,25 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -995,6 +1128,63 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1009,61 +1199,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1095,6 +1235,86 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1111,87 +1331,61 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1210,6 +1404,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <strike val="0"/>
@@ -1224,79 +1425,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1553,25 +1681,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="7" tint="0.79998168889431442"/>
@@ -1593,6 +1702,25 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1609,6 +1737,63 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1623,61 +1808,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1714,6 +1849,44 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1728,42 +1901,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1780,25 +1922,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1947,136 +2070,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="7"/>
@@ -2084,67 +2077,169 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2160,193 +2255,198 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A79962B-AEC1-4BA2-8BBE-60DA57A5CFBD}" name="Table1" displayName="Table1" ref="A2:E5" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A79962B-AEC1-4BA2-8BBE-60DA57A5CFBD}" name="Table1" displayName="Table1" ref="A2:E5" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
   <autoFilter ref="A2:E5" xr:uid="{0A79962B-AEC1-4BA2-8BBE-60DA57A5CFBD}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F238FED4-8AD9-415E-BF00-9C7B319C1400}" name="Id" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{E0D6CABF-B5D0-4825-9E10-24C9F93DB042}" name="Title" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{6B319D20-A60B-4504-9908-A8CF0C774521}" name="Description" dataDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{AB97B883-C760-4355-97E9-1D0BC51D23A3}" name="CreatedAt" dataDxfId="84"/>
-    <tableColumn id="5" xr3:uid="{773CB633-5043-4D94-8C79-DA10214C4278}" name="TimeLimit" dataDxfId="83"/>
+    <tableColumn id="1" xr3:uid="{F238FED4-8AD9-415E-BF00-9C7B319C1400}" name="Id" dataDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{E0D6CABF-B5D0-4825-9E10-24C9F93DB042}" name="Title" dataDxfId="99"/>
+    <tableColumn id="3" xr3:uid="{6B319D20-A60B-4504-9908-A8CF0C774521}" name="Description" dataDxfId="98"/>
+    <tableColumn id="4" xr3:uid="{AB97B883-C760-4355-97E9-1D0BC51D23A3}" name="CreatedAt" dataDxfId="97"/>
+    <tableColumn id="5" xr3:uid="{773CB633-5043-4D94-8C79-DA10214C4278}" name="TimeLimit" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AEB1B0AB-8A75-404F-AC46-C9C83A408145}" name="Table4116" displayName="Table4116" ref="G26:K29" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="G26:K29" xr:uid="{AEB1B0AB-8A75-404F-AC46-C9C83A408145}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AEB1B0AB-8A75-404F-AC46-C9C83A408145}" name="Table4116" displayName="Table4116" ref="A32:E35" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A32:E35" xr:uid="{AEB1B0AB-8A75-404F-AC46-C9C83A408145}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F53C790D-B82B-4BAF-8ED9-8E9B5E30319B}" name="Id" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{56133213-8380-4969-A3B5-7B121D24AC10}" name="UserQuizId " dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{939056A5-287C-41B8-AD54-CC6B7E027FE8}" name="QuestionId " dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{54E8C5D0-0929-4C3C-BBFE-434E783DC4F0}" name="AnswerId " dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{CA923F4E-9135-4650-820C-838E8B063852}" name="FreeText " dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{F53C790D-B82B-4BAF-8ED9-8E9B5E30319B}" name="Id" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{56133213-8380-4969-A3B5-7B121D24AC10}" name="UserQuizId " dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{939056A5-287C-41B8-AD54-CC6B7E027FE8}" name="QuestionId " dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{54E8C5D0-0929-4C3C-BBFE-434E783DC4F0}" name="AnswerId " dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{CA923F4E-9135-4650-820C-838E8B063852}" name="FreeText " dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5EF00002-90ED-499C-A6B7-295B92CCAD08}" name="Table791339" displayName="Table791339" ref="H20:J23" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5EF00002-90ED-499C-A6B7-295B92CCAD08}" name="Table791339" displayName="Table791339" ref="H20:J23" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31" tableBorderDxfId="30">
   <autoFilter ref="H20:J23" xr:uid="{5EF00002-90ED-499C-A6B7-295B92CCAD08}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{95A5F424-E322-4E19-BD04-574E4757D985}" name="Id" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{F47EAF99-A848-4F78-B3CF-8B338BCC4322}" name="UserId" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{8E39D621-8D60-49C1-9B93-416027E720CC}" name="RoleId" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{95A5F424-E322-4E19-BD04-574E4757D985}" name="Id" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{F47EAF99-A848-4F78-B3CF-8B338BCC4322}" name="UserId" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{8E39D621-8D60-49C1-9B93-416027E720CC}" name="RoleId" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3F1D2D8D-F15C-44EF-A0DC-AADD7EB5D9DD}" name="Table79133914" displayName="Table79133914" ref="J14:K17" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3F1D2D8D-F15C-44EF-A0DC-AADD7EB5D9DD}" name="Table79133914" displayName="Table79133914" ref="J14:K17" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24">
   <autoFilter ref="J14:K17" xr:uid="{3F1D2D8D-F15C-44EF-A0DC-AADD7EB5D9DD}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C6F3F560-D724-4DE4-ABDC-739035A53B46}" name="Id" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{8305E703-F7D3-4F2F-BBAD-2F1F7B3FF6CD}" name="RoleName" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{C6F3F560-D724-4DE4-ABDC-739035A53B46}" name="Id" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{8305E703-F7D3-4F2F-BBAD-2F1F7B3FF6CD}" name="RoleName" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{758FCF58-11CF-4F6E-BB37-CBCB4FDD9179}" name="Table7913391415" displayName="Table7913391415" ref="M14:N17" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{758FCF58-11CF-4F6E-BB37-CBCB4FDD9179}" name="Table7913391415" displayName="Table7913391415" ref="M14:N17" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
   <autoFilter ref="M14:N17" xr:uid="{758FCF58-11CF-4F6E-BB37-CBCB4FDD9179}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C2533080-054E-44EF-A66B-1FF609F85487}" name="Id" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{7AE9E73D-B773-4753-A6F3-9EF8AF42E6CE}" name="TypeName" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{C2533080-054E-44EF-A66B-1FF609F85487}" name="Id" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{7AE9E73D-B773-4753-A6F3-9EF8AF42E6CE}" name="TypeName" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{E20F82DB-463C-45EB-86AA-455A74ECDFCB}" name="Table791339141516" displayName="Table791339141516" ref="K8:L11" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{E20F82DB-463C-45EB-86AA-455A74ECDFCB}" name="Table791339141516" displayName="Table791339141516" ref="K8:L11" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="K8:L11" xr:uid="{E20F82DB-463C-45EB-86AA-455A74ECDFCB}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C7A1C32B-C429-4703-A9AA-39EC009955C1}" name="Id" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{7A920786-0E2D-4329-81AA-1DAE95E5D364}" name="TypeName" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{C7A1C32B-C429-4703-A9AA-39EC009955C1}" name="Id" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{7A920786-0E2D-4329-81AA-1DAE95E5D364}" name="TypeName" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{946485ED-02FC-46A8-8EF9-800E43C9FAA1}" name="Table7913317" displayName="Table7913317" ref="N8:P11" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{946485ED-02FC-46A8-8EF9-800E43C9FAA1}" name="Table7913317" displayName="Table7913317" ref="N8:P11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="N8:P11" xr:uid="{946485ED-02FC-46A8-8EF9-800E43C9FAA1}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FB3FB424-4531-48FD-A206-D2957E2A26B0}" name="Id" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{0A967AD0-0A48-4A60-B1C6-C853FCAEC469}" name="QuizId" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{F5E411F8-4FC0-4725-943A-733B504B7A16}" name="TagId" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{FB3FB424-4531-48FD-A206-D2957E2A26B0}" name="Id" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{0A967AD0-0A48-4A60-B1C6-C853FCAEC469}" name="QuizId" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{F5E411F8-4FC0-4725-943A-733B504B7A16}" name="TagId" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9237A2E-255C-4FAC-BE16-9DC8EE8ED36E}" name="Table3" displayName="Table3" ref="G2:L5" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" tableBorderDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9237A2E-255C-4FAC-BE16-9DC8EE8ED36E}" name="Table3" displayName="Table3" ref="G2:L5" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94" tableBorderDxfId="93">
   <autoFilter ref="G2:L5" xr:uid="{B9237A2E-255C-4FAC-BE16-9DC8EE8ED36E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{11A3F043-76AA-497A-8E70-04B4EEFC231A}" name="Id" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{D440EAB9-2CA3-43CA-9FA6-D491B473723D}" name="Content" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{B76291C2-CD8B-4555-83B5-1C9882F49F3C}" name="Format" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{86322B2A-4305-45A0-80DA-5F1A034A190A}" name="LevelId" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{7FAC9DF3-7A40-4212-B353-A4F4CE9CCB6F}" name="TopicId" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{E1D4D179-9F5D-466C-B4DF-CFA76EAEB4B7}" name="TypeId" dataDxfId="75"/>
+    <tableColumn id="1" xr3:uid="{11A3F043-76AA-497A-8E70-04B4EEFC231A}" name="Id" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{D440EAB9-2CA3-43CA-9FA6-D491B473723D}" name="Content" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{B76291C2-CD8B-4555-83B5-1C9882F49F3C}" name="Format" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{86322B2A-4305-45A0-80DA-5F1A034A190A}" name="LevelId" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{7FAC9DF3-7A40-4212-B353-A4F4CE9CCB6F}" name="TopicId" dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{E1D4D179-9F5D-466C-B4DF-CFA76EAEB4B7}" name="TypeId" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D07F7F1F-0C11-4420-86ED-32ADFC35D176}" name="Table6" displayName="Table6" ref="A14:C17" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68" tableBorderDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D07F7F1F-0C11-4420-86ED-32ADFC35D176}" name="Table6" displayName="Table6" ref="A14:C17" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85" tableBorderDxfId="84">
   <autoFilter ref="A14:C17" xr:uid="{D07F7F1F-0C11-4420-86ED-32ADFC35D176}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9C6E43C9-D9C3-4FF2-B9D8-AF875E68B807}" name="Id" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{2FF6299F-DC71-4BD0-AB90-FAAD1B4B5A53}" name="Name" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{ABC80DC0-4DAE-40AC-AF3F-0A7147347D49}" name="ParentTopicID" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{9C6E43C9-D9C3-4FF2-B9D8-AF875E68B807}" name="Id" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{2FF6299F-DC71-4BD0-AB90-FAAD1B4B5A53}" name="Name" dataDxfId="82"/>
+    <tableColumn id="3" xr3:uid="{ABC80DC0-4DAE-40AC-AF3F-0A7147347D49}" name="ParentTopicID" dataDxfId="81"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{09B70181-5D84-477D-BD87-E795B37276C4}" name="Table7" displayName="Table7" ref="E14:H17" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" tableBorderDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{09B70181-5D84-477D-BD87-E795B37276C4}" name="Table7" displayName="Table7" ref="E14:H17" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79" tableBorderDxfId="78">
   <autoFilter ref="E14:H17" xr:uid="{09B70181-5D84-477D-BD87-E795B37276C4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{328F0973-54AB-4F4E-B9DF-38A92B7D0EB7}" name="Id" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{D0E3492C-A244-453E-ADF6-AC2921F6BE53}" name="LevelName" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{32553B2B-51C8-4027-B7F6-F78571A9A039}" name="ScoreWeight" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{144C7DD5-B5F0-445F-9D2E-440C8ABE9A42}" name="TimeConstraint" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{328F0973-54AB-4F4E-B9DF-38A92B7D0EB7}" name="Id" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{D0E3492C-A244-453E-ADF6-AC2921F6BE53}" name="LevelName" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{32553B2B-51C8-4027-B7F6-F78571A9A039}" name="ScoreWeight" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{144C7DD5-B5F0-445F-9D2E-440C8ABE9A42}" name="TimeConstraint" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B2773DDF-A39C-44D7-AEDC-CF8D980FB8FF}" name="Table411" displayName="Table411" ref="A26:E29" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
-  <autoFilter ref="A26:E29" xr:uid="{B2773DDF-A39C-44D7-AEDC-CF8D980FB8FF}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BA579B0D-99C8-4846-AA2A-58710BEE3F30}" name="Id" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{F494C43B-BA5A-40CF-A7AE-537CD9375379}" name="UserID" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{68945211-9457-454C-A551-79DA66D3771B}" name="QuizID" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{A68FFC5C-3CC3-4441-9453-7E98D5CC6602}" name="CompletionTime" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{F002231A-EC2F-48C4-A011-265F516024DA}" name="AttemptAt" dataDxfId="57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B2773DDF-A39C-44D7-AEDC-CF8D980FB8FF}" name="Table411" displayName="Table411" ref="A26:J29" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
+  <autoFilter ref="A26:J29" xr:uid="{B2773DDF-A39C-44D7-AEDC-CF8D980FB8FF}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{BA579B0D-99C8-4846-AA2A-58710BEE3F30}" name="Id" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{F494C43B-BA5A-40CF-A7AE-537CD9375379}" name="UserID" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{68945211-9457-454C-A551-79DA66D3771B}" name="QuizID" dataDxfId="69"/>
+    <tableColumn id="7" xr3:uid="{E1EEA3B4-F290-4A54-898A-8B5CFDB3CB1C}" name="Score" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{DA696183-9435-4440-BB04-D8B2FCADC7C2}" name="TotalQuestions" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{FE2BB387-60F6-45F6-A1E4-FE7CB7937A2C}" name="CorrectAnswers" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{DA336C9B-D10C-4600-8A7B-6F37F4F7AEB9}" name="StartTime" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{6A6B5A56-9567-4C85-AC18-82925424D272}" name="EndTime" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{F002231A-EC2F-48C4-A011-265F516024DA}" name="AttemptAt" dataDxfId="68"/>
+    <tableColumn id="11" xr3:uid="{75744650-9CE9-45A0-9B81-F1C65C043216}" name="CompletionTime" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{42F24B4A-E5FC-4580-AC79-7A87B6E74532}" name="Table41012" displayName="Table41012" ref="A20:F23" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{42F24B4A-E5FC-4580-AC79-7A87B6E74532}" name="Table41012" displayName="Table41012" ref="A20:F23" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
   <autoFilter ref="A20:F23" xr:uid="{42F24B4A-E5FC-4580-AC79-7A87B6E74532}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AB2F2B92-4F5E-45D5-94FB-ADB8435B9566}" name="Id" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{B9827B33-45BE-47C1-A171-29F23AD74DC2}" name="UserName" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{B49FE75E-62B6-4D37-8C90-5095A776B904}" name="Column1" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{D74DA2E3-95DA-43B1-B28C-B64A14ABA8B1}" name="Password" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{61E76584-885D-4BCA-A61B-05EE3807BA29}" name="CreatedAt" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{C5B91E7E-7207-4164-A092-76CF2F672774}" name="UpdateAt" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{AB2F2B92-4F5E-45D5-94FB-ADB8435B9566}" name="Id" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{B9827B33-45BE-47C1-A171-29F23AD74DC2}" name="UserName" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{B49FE75E-62B6-4D37-8C90-5095A776B904}" name="Column1" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{D74DA2E3-95DA-43B1-B28C-B64A14ABA8B1}" name="Password" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{61E76584-885D-4BCA-A61B-05EE3807BA29}" name="CreatedAt" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{C5B91E7E-7207-4164-A092-76CF2F672774}" name="UpdateAt" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A3741F9-7340-4634-958D-243B2CB30081}" name="Table79133" displayName="Table79133" ref="G8:I11" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A3741F9-7340-4634-958D-243B2CB30081}" name="Table79133" displayName="Table79133" ref="G8:I11" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57">
   <autoFilter ref="G8:I11" xr:uid="{0A3741F9-7340-4634-958D-243B2CB30081}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{31F14D34-66D8-41C0-A3EA-4754B439DA63}" name="Id" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{8E3A139A-5007-4A16-BB0C-C46739F67B30}" name="QuestionId" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{F32C6264-78B0-42EF-820B-362961B4B35B}" name="AnswerId" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{31F14D34-66D8-41C0-A3EA-4754B439DA63}" name="Id" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{8E3A139A-5007-4A16-BB0C-C46739F67B30}" name="QuestionId" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{F32C6264-78B0-42EF-820B-362961B4B35B}" name="AnswerId" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1FA08D23-38C9-4F9D-A38F-2FAD175CEAC5}" name="Table4" displayName="Table4" ref="A8:E11" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1FA08D23-38C9-4F9D-A38F-2FAD175CEAC5}" name="Table4" displayName="Table4" ref="A8:E11" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A8:E11" xr:uid="{1FA08D23-38C9-4F9D-A38F-2FAD175CEAC5}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6D940C02-9530-4EAD-9CFB-AEBCF3BB6A31}" name="Id" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{12869B36-21EC-4622-8455-75F60E2AD58B}" name="AnswerText" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{97B8C5D1-BBA2-4E43-902B-8228BD6EFBA7}" name="IsCorrect" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{415B0A9F-E9AC-4B8E-9FF6-5F36248C5433}" name="IsDynamic" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{13FBD282-3F29-4BAF-BB02-64422CAE2315}" name="CanBeSuggested" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{6D940C02-9530-4EAD-9CFB-AEBCF3BB6A31}" name="Id" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{12869B36-21EC-4622-8455-75F60E2AD58B}" name="AnswerText" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{97B8C5D1-BBA2-4E43-902B-8228BD6EFBA7}" name="IsCorrect" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{415B0A9F-E9AC-4B8E-9FF6-5F36248C5433}" name="IsDynamic" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{13FBD282-3F29-4BAF-BB02-64422CAE2315}" name="CanBeSuggested" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BCABB276-88BA-4F24-A0D9-15F6C263304F}" name="Table61410" displayName="Table61410" ref="N2:Q5" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" tableBorderDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BCABB276-88BA-4F24-A0D9-15F6C263304F}" name="Table61410" displayName="Table61410" ref="N2:Q5" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45" tableBorderDxfId="44">
   <autoFilter ref="N2:Q5" xr:uid="{BCABB276-88BA-4F24-A0D9-15F6C263304F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5EB3FF8F-A636-4EEE-B8E1-1807AA06E054}" name="Id" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{CEAAA849-0E1B-4880-BB0D-7B68048D946C}" name="QuizId" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{DAED52E6-0B97-493B-8C38-2D2C83FDE3CC}" name="QuestionId" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{1B02BC0F-6221-4E41-A04C-917A41872E22}" name="Order" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{5EB3FF8F-A636-4EEE-B8E1-1807AA06E054}" name="Id" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{CEAAA849-0E1B-4880-BB0D-7B68048D946C}" name="QuizId" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{DAED52E6-0B97-493B-8C38-2D2C83FDE3CC}" name="QuestionId" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{1B02BC0F-6221-4E41-A04C-917A41872E22}" name="Order" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2669,10 +2769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A88412-2F2D-4255-B565-F6FDBB99DF9D}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2680,15 +2780,14 @@
     <col min="1" max="1" width="8.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.21875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="11.44140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="9.5546875" style="1" customWidth="1"/>
     <col min="14" max="14" width="8.88671875" style="1"/>
     <col min="15" max="15" width="11" style="1" customWidth="1"/>
@@ -3166,7 +3265,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>3</v>
       </c>
@@ -3201,7 +3300,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -3212,7 +3311,7 @@
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
     </row>
-    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
@@ -3246,7 +3345,7 @@
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
     </row>
-    <row r="21" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>1</v>
       </c>
@@ -3277,7 +3376,7 @@
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
     </row>
-    <row r="22" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>2</v>
       </c>
@@ -3306,9 +3405,11 @@
         <v>2</v>
       </c>
       <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
+      <c r="P22" s="12" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>3</v>
       </c>
@@ -3336,29 +3437,20 @@
       <c r="J23" s="1">
         <v>3</v>
       </c>
+      <c r="M23" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="N24" s="3" t="s">
-        <v>93</v>
-      </c>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="13"/>
-      <c r="G25" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="13"/>
-      <c r="N25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>95</v>
-      </c>
     </row>
-    <row r="26" spans="1:16" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>2</v>
       </c>
@@ -3369,102 +3461,63 @@
         <v>23</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>45590</v>
+      </c>
+      <c r="J27" s="1">
         <v>25</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N26" s="3"/>
-      <c r="P26" s="1" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="I28" s="2">
+        <v>45591</v>
+      </c>
+      <c r="J28" s="1">
         <v>25</v>
       </c>
-      <c r="E27" s="2">
-        <v>45590</v>
-      </c>
-      <c r="G27" s="9">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>97</v>
-      </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
-        <v>2</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>25</v>
-      </c>
-      <c r="E28" s="2">
-        <v>45591</v>
-      </c>
-      <c r="G28" s="10">
-        <v>2</v>
-      </c>
-      <c r="H28" s="1">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1">
-        <v>2</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>3</v>
       </c>
@@ -3472,34 +3525,93 @@
         <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="I29" s="2">
+        <v>45592</v>
+      </c>
+      <c r="J29" s="1">
         <v>25</v>
       </c>
-      <c r="E29" s="2">
-        <v>45592</v>
-      </c>
-      <c r="G29" s="9">
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="13"/>
+    </row>
+    <row r="32" spans="1:19" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
         <v>3</v>
       </c>
-      <c r="H29" s="1">
-        <v>1</v>
-      </c>
-      <c r="I29" s="1">
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
         <v>3</v>
       </c>
-      <c r="J29" s="1">
+      <c r="D35" s="1">
         <v>3</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A31:B31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Quiz challenge/Quiz simple data.xlsx
+++ b/Quiz challenge/Quiz simple data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mentorship_Program\Quiz challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01271C37-D1C2-4CEE-8414-3B4CC41DAF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116F7026-0770-42F2-A765-2AA8049FE77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-120" windowWidth="23256" windowHeight="12456" xr2:uid="{7C43A32B-1E6E-4A0B-8D6F-624FBD4948C3}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{7C43A32B-1E6E-4A0B-8D6F-624FBD4948C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
   <si>
     <t>Quiz</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>CompletionTime</t>
-  </si>
-  <si>
-    <t>AttemptAt</t>
   </si>
   <si>
     <t>C#</t>
@@ -456,119 +453,25 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="103">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+  <dxfs count="102">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1606,6 +1509,82 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2255,198 +2234,197 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A79962B-AEC1-4BA2-8BBE-60DA57A5CFBD}" name="Table1" displayName="Table1" ref="A2:E5" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A79962B-AEC1-4BA2-8BBE-60DA57A5CFBD}" name="Table1" displayName="Table1" ref="A2:E5" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
   <autoFilter ref="A2:E5" xr:uid="{0A79962B-AEC1-4BA2-8BBE-60DA57A5CFBD}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F238FED4-8AD9-415E-BF00-9C7B319C1400}" name="Id" dataDxfId="100"/>
-    <tableColumn id="2" xr3:uid="{E0D6CABF-B5D0-4825-9E10-24C9F93DB042}" name="Title" dataDxfId="99"/>
-    <tableColumn id="3" xr3:uid="{6B319D20-A60B-4504-9908-A8CF0C774521}" name="Description" dataDxfId="98"/>
-    <tableColumn id="4" xr3:uid="{AB97B883-C760-4355-97E9-1D0BC51D23A3}" name="CreatedAt" dataDxfId="97"/>
-    <tableColumn id="5" xr3:uid="{773CB633-5043-4D94-8C79-DA10214C4278}" name="TimeLimit" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{F238FED4-8AD9-415E-BF00-9C7B319C1400}" name="Id" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{E0D6CABF-B5D0-4825-9E10-24C9F93DB042}" name="Title" dataDxfId="98"/>
+    <tableColumn id="3" xr3:uid="{6B319D20-A60B-4504-9908-A8CF0C774521}" name="Description" dataDxfId="97"/>
+    <tableColumn id="4" xr3:uid="{AB97B883-C760-4355-97E9-1D0BC51D23A3}" name="CreatedAt" dataDxfId="96"/>
+    <tableColumn id="5" xr3:uid="{773CB633-5043-4D94-8C79-DA10214C4278}" name="TimeLimit" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AEB1B0AB-8A75-404F-AC46-C9C83A408145}" name="Table4116" displayName="Table4116" ref="A32:E35" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AEB1B0AB-8A75-404F-AC46-C9C83A408145}" name="Table4116" displayName="Table4116" ref="A32:E35" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A32:E35" xr:uid="{AEB1B0AB-8A75-404F-AC46-C9C83A408145}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F53C790D-B82B-4BAF-8ED9-8E9B5E30319B}" name="Id" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{56133213-8380-4969-A3B5-7B121D24AC10}" name="UserQuizId " dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{939056A5-287C-41B8-AD54-CC6B7E027FE8}" name="QuestionId " dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{54E8C5D0-0929-4C3C-BBFE-434E783DC4F0}" name="AnswerId " dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{CA923F4E-9135-4650-820C-838E8B063852}" name="FreeText " dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{F53C790D-B82B-4BAF-8ED9-8E9B5E30319B}" name="Id" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{56133213-8380-4969-A3B5-7B121D24AC10}" name="UserQuizId " dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{939056A5-287C-41B8-AD54-CC6B7E027FE8}" name="QuestionId " dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{54E8C5D0-0929-4C3C-BBFE-434E783DC4F0}" name="AnswerId " dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{CA923F4E-9135-4650-820C-838E8B063852}" name="FreeText " dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5EF00002-90ED-499C-A6B7-295B92CCAD08}" name="Table791339" displayName="Table791339" ref="H20:J23" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31" tableBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5EF00002-90ED-499C-A6B7-295B92CCAD08}" name="Table791339" displayName="Table791339" ref="H20:J23" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" tableBorderDxfId="25">
   <autoFilter ref="H20:J23" xr:uid="{5EF00002-90ED-499C-A6B7-295B92CCAD08}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{95A5F424-E322-4E19-BD04-574E4757D985}" name="Id" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{F47EAF99-A848-4F78-B3CF-8B338BCC4322}" name="UserId" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{8E39D621-8D60-49C1-9B93-416027E720CC}" name="RoleId" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{95A5F424-E322-4E19-BD04-574E4757D985}" name="Id" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{F47EAF99-A848-4F78-B3CF-8B338BCC4322}" name="UserId" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{8E39D621-8D60-49C1-9B93-416027E720CC}" name="RoleId" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3F1D2D8D-F15C-44EF-A0DC-AADD7EB5D9DD}" name="Table79133914" displayName="Table79133914" ref="J14:K17" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3F1D2D8D-F15C-44EF-A0DC-AADD7EB5D9DD}" name="Table79133914" displayName="Table79133914" ref="J14:K17" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
   <autoFilter ref="J14:K17" xr:uid="{3F1D2D8D-F15C-44EF-A0DC-AADD7EB5D9DD}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C6F3F560-D724-4DE4-ABDC-739035A53B46}" name="Id" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{8305E703-F7D3-4F2F-BBAD-2F1F7B3FF6CD}" name="RoleName" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{C6F3F560-D724-4DE4-ABDC-739035A53B46}" name="Id" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{8305E703-F7D3-4F2F-BBAD-2F1F7B3FF6CD}" name="RoleName" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{758FCF58-11CF-4F6E-BB37-CBCB4FDD9179}" name="Table7913391415" displayName="Table7913391415" ref="M14:N17" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{758FCF58-11CF-4F6E-BB37-CBCB4FDD9179}" name="Table7913391415" displayName="Table7913391415" ref="M14:N17" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="M14:N17" xr:uid="{758FCF58-11CF-4F6E-BB37-CBCB4FDD9179}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C2533080-054E-44EF-A66B-1FF609F85487}" name="Id" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{7AE9E73D-B773-4753-A6F3-9EF8AF42E6CE}" name="TypeName" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{C2533080-054E-44EF-A66B-1FF609F85487}" name="Id" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{7AE9E73D-B773-4753-A6F3-9EF8AF42E6CE}" name="TypeName" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{E20F82DB-463C-45EB-86AA-455A74ECDFCB}" name="Table791339141516" displayName="Table791339141516" ref="K8:L11" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{E20F82DB-463C-45EB-86AA-455A74ECDFCB}" name="Table791339141516" displayName="Table791339141516" ref="K8:L11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="K8:L11" xr:uid="{E20F82DB-463C-45EB-86AA-455A74ECDFCB}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C7A1C32B-C429-4703-A9AA-39EC009955C1}" name="Id" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{7A920786-0E2D-4329-81AA-1DAE95E5D364}" name="TypeName" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{C7A1C32B-C429-4703-A9AA-39EC009955C1}" name="Id" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{7A920786-0E2D-4329-81AA-1DAE95E5D364}" name="TypeName" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{946485ED-02FC-46A8-8EF9-800E43C9FAA1}" name="Table7913317" displayName="Table7913317" ref="N8:P11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{946485ED-02FC-46A8-8EF9-800E43C9FAA1}" name="Table7913317" displayName="Table7913317" ref="N8:P11" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="N8:P11" xr:uid="{946485ED-02FC-46A8-8EF9-800E43C9FAA1}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FB3FB424-4531-48FD-A206-D2957E2A26B0}" name="Id" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{0A967AD0-0A48-4A60-B1C6-C853FCAEC469}" name="QuizId" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{F5E411F8-4FC0-4725-943A-733B504B7A16}" name="TagId" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{FB3FB424-4531-48FD-A206-D2957E2A26B0}" name="Id" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{0A967AD0-0A48-4A60-B1C6-C853FCAEC469}" name="QuizId" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{F5E411F8-4FC0-4725-943A-733B504B7A16}" name="TagId" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9237A2E-255C-4FAC-BE16-9DC8EE8ED36E}" name="Table3" displayName="Table3" ref="G2:L5" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94" tableBorderDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9237A2E-255C-4FAC-BE16-9DC8EE8ED36E}" name="Table3" displayName="Table3" ref="G2:L5" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93" tableBorderDxfId="92">
   <autoFilter ref="G2:L5" xr:uid="{B9237A2E-255C-4FAC-BE16-9DC8EE8ED36E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{11A3F043-76AA-497A-8E70-04B4EEFC231A}" name="Id" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{D440EAB9-2CA3-43CA-9FA6-D491B473723D}" name="Content" dataDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{B76291C2-CD8B-4555-83B5-1C9882F49F3C}" name="Format" dataDxfId="90"/>
-    <tableColumn id="4" xr3:uid="{86322B2A-4305-45A0-80DA-5F1A034A190A}" name="LevelId" dataDxfId="89"/>
-    <tableColumn id="5" xr3:uid="{7FAC9DF3-7A40-4212-B353-A4F4CE9CCB6F}" name="TopicId" dataDxfId="88"/>
-    <tableColumn id="6" xr3:uid="{E1D4D179-9F5D-466C-B4DF-CFA76EAEB4B7}" name="TypeId" dataDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{11A3F043-76AA-497A-8E70-04B4EEFC231A}" name="Id" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{D440EAB9-2CA3-43CA-9FA6-D491B473723D}" name="Content" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{B76291C2-CD8B-4555-83B5-1C9882F49F3C}" name="Format" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{86322B2A-4305-45A0-80DA-5F1A034A190A}" name="LevelId" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{7FAC9DF3-7A40-4212-B353-A4F4CE9CCB6F}" name="TopicId" dataDxfId="87"/>
+    <tableColumn id="6" xr3:uid="{E1D4D179-9F5D-466C-B4DF-CFA76EAEB4B7}" name="TypeId" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D07F7F1F-0C11-4420-86ED-32ADFC35D176}" name="Table6" displayName="Table6" ref="A14:C17" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85" tableBorderDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D07F7F1F-0C11-4420-86ED-32ADFC35D176}" name="Table6" displayName="Table6" ref="A14:C17" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84" tableBorderDxfId="83">
   <autoFilter ref="A14:C17" xr:uid="{D07F7F1F-0C11-4420-86ED-32ADFC35D176}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9C6E43C9-D9C3-4FF2-B9D8-AF875E68B807}" name="Id" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{2FF6299F-DC71-4BD0-AB90-FAAD1B4B5A53}" name="Name" dataDxfId="82"/>
-    <tableColumn id="3" xr3:uid="{ABC80DC0-4DAE-40AC-AF3F-0A7147347D49}" name="ParentTopicID" dataDxfId="81"/>
+    <tableColumn id="1" xr3:uid="{9C6E43C9-D9C3-4FF2-B9D8-AF875E68B807}" name="Id" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{2FF6299F-DC71-4BD0-AB90-FAAD1B4B5A53}" name="Name" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{ABC80DC0-4DAE-40AC-AF3F-0A7147347D49}" name="ParentTopicID" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{09B70181-5D84-477D-BD87-E795B37276C4}" name="Table7" displayName="Table7" ref="E14:H17" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79" tableBorderDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{09B70181-5D84-477D-BD87-E795B37276C4}" name="Table7" displayName="Table7" ref="E14:H17" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78" tableBorderDxfId="77">
   <autoFilter ref="E14:H17" xr:uid="{09B70181-5D84-477D-BD87-E795B37276C4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{328F0973-54AB-4F4E-B9DF-38A92B7D0EB7}" name="Id" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{D0E3492C-A244-453E-ADF6-AC2921F6BE53}" name="LevelName" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{32553B2B-51C8-4027-B7F6-F78571A9A039}" name="ScoreWeight" dataDxfId="75"/>
-    <tableColumn id="5" xr3:uid="{144C7DD5-B5F0-445F-9D2E-440C8ABE9A42}" name="TimeConstraint" dataDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{328F0973-54AB-4F4E-B9DF-38A92B7D0EB7}" name="Id" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{D0E3492C-A244-453E-ADF6-AC2921F6BE53}" name="LevelName" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{32553B2B-51C8-4027-B7F6-F78571A9A039}" name="ScoreWeight" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{144C7DD5-B5F0-445F-9D2E-440C8ABE9A42}" name="TimeConstraint" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B2773DDF-A39C-44D7-AEDC-CF8D980FB8FF}" name="Table411" displayName="Table411" ref="A26:J29" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
-  <autoFilter ref="A26:J29" xr:uid="{B2773DDF-A39C-44D7-AEDC-CF8D980FB8FF}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{BA579B0D-99C8-4846-AA2A-58710BEE3F30}" name="Id" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{F494C43B-BA5A-40CF-A7AE-537CD9375379}" name="UserID" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{68945211-9457-454C-A551-79DA66D3771B}" name="QuizID" dataDxfId="69"/>
-    <tableColumn id="7" xr3:uid="{E1EEA3B4-F290-4A54-898A-8B5CFDB3CB1C}" name="Score" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{DA696183-9435-4440-BB04-D8B2FCADC7C2}" name="TotalQuestions" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{FE2BB387-60F6-45F6-A1E4-FE7CB7937A2C}" name="CorrectAnswers" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{DA336C9B-D10C-4600-8A7B-6F37F4F7AEB9}" name="StartTime" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{6A6B5A56-9567-4C85-AC18-82925424D272}" name="EndTime" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{F002231A-EC2F-48C4-A011-265F516024DA}" name="AttemptAt" dataDxfId="68"/>
-    <tableColumn id="11" xr3:uid="{75744650-9CE9-45A0-9B81-F1C65C043216}" name="CompletionTime" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B2773DDF-A39C-44D7-AEDC-CF8D980FB8FF}" name="Table411" displayName="Table411" ref="A26:I29" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+  <autoFilter ref="A26:I29" xr:uid="{B2773DDF-A39C-44D7-AEDC-CF8D980FB8FF}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{BA579B0D-99C8-4846-AA2A-58710BEE3F30}" name="Id" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{F494C43B-BA5A-40CF-A7AE-537CD9375379}" name="UserID" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{68945211-9457-454C-A551-79DA66D3771B}" name="QuizID" dataDxfId="68"/>
+    <tableColumn id="7" xr3:uid="{E1EEA3B4-F290-4A54-898A-8B5CFDB3CB1C}" name="Score" dataDxfId="67"/>
+    <tableColumn id="8" xr3:uid="{DA696183-9435-4440-BB04-D8B2FCADC7C2}" name="TotalQuestions" dataDxfId="66"/>
+    <tableColumn id="9" xr3:uid="{FE2BB387-60F6-45F6-A1E4-FE7CB7937A2C}" name="CorrectAnswers" dataDxfId="65"/>
+    <tableColumn id="10" xr3:uid="{DA336C9B-D10C-4600-8A7B-6F37F4F7AEB9}" name="StartTime" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{6A6B5A56-9567-4C85-AC18-82925424D272}" name="EndTime" dataDxfId="64"/>
+    <tableColumn id="11" xr3:uid="{75744650-9CE9-45A0-9B81-F1C65C043216}" name="CompletionTime" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{42F24B4A-E5FC-4580-AC79-7A87B6E74532}" name="Table41012" displayName="Table41012" ref="A20:F23" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{42F24B4A-E5FC-4580-AC79-7A87B6E74532}" name="Table41012" displayName="Table41012" ref="A20:F23" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
   <autoFilter ref="A20:F23" xr:uid="{42F24B4A-E5FC-4580-AC79-7A87B6E74532}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AB2F2B92-4F5E-45D5-94FB-ADB8435B9566}" name="Id" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{B9827B33-45BE-47C1-A171-29F23AD74DC2}" name="UserName" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{B49FE75E-62B6-4D37-8C90-5095A776B904}" name="Column1" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{D74DA2E3-95DA-43B1-B28C-B64A14ABA8B1}" name="Password" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{61E76584-885D-4BCA-A61B-05EE3807BA29}" name="CreatedAt" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{C5B91E7E-7207-4164-A092-76CF2F672774}" name="UpdateAt" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{AB2F2B92-4F5E-45D5-94FB-ADB8435B9566}" name="Id" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{B9827B33-45BE-47C1-A171-29F23AD74DC2}" name="UserName" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{B49FE75E-62B6-4D37-8C90-5095A776B904}" name="Column1" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{D74DA2E3-95DA-43B1-B28C-B64A14ABA8B1}" name="Password" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{61E76584-885D-4BCA-A61B-05EE3807BA29}" name="CreatedAt" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{C5B91E7E-7207-4164-A092-76CF2F672774}" name="UpdateAt" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A3741F9-7340-4634-958D-243B2CB30081}" name="Table79133" displayName="Table79133" ref="G8:I11" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A3741F9-7340-4634-958D-243B2CB30081}" name="Table79133" displayName="Table79133" ref="G8:I11" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53" tableBorderDxfId="52">
   <autoFilter ref="G8:I11" xr:uid="{0A3741F9-7340-4634-958D-243B2CB30081}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{31F14D34-66D8-41C0-A3EA-4754B439DA63}" name="Id" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{8E3A139A-5007-4A16-BB0C-C46739F67B30}" name="QuestionId" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{F32C6264-78B0-42EF-820B-362961B4B35B}" name="AnswerId" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{31F14D34-66D8-41C0-A3EA-4754B439DA63}" name="Id" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{8E3A139A-5007-4A16-BB0C-C46739F67B30}" name="QuestionId" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{F32C6264-78B0-42EF-820B-362961B4B35B}" name="AnswerId" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1FA08D23-38C9-4F9D-A38F-2FAD175CEAC5}" name="Table4" displayName="Table4" ref="A8:E11" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1FA08D23-38C9-4F9D-A38F-2FAD175CEAC5}" name="Table4" displayName="Table4" ref="A8:E11" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="A8:E11" xr:uid="{1FA08D23-38C9-4F9D-A38F-2FAD175CEAC5}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6D940C02-9530-4EAD-9CFB-AEBCF3BB6A31}" name="Id" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{12869B36-21EC-4622-8455-75F60E2AD58B}" name="AnswerText" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{97B8C5D1-BBA2-4E43-902B-8228BD6EFBA7}" name="IsCorrect" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{415B0A9F-E9AC-4B8E-9FF6-5F36248C5433}" name="IsDynamic" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{13FBD282-3F29-4BAF-BB02-64422CAE2315}" name="CanBeSuggested" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{6D940C02-9530-4EAD-9CFB-AEBCF3BB6A31}" name="Id" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{12869B36-21EC-4622-8455-75F60E2AD58B}" name="AnswerText" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{97B8C5D1-BBA2-4E43-902B-8228BD6EFBA7}" name="IsCorrect" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{415B0A9F-E9AC-4B8E-9FF6-5F36248C5433}" name="IsDynamic" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{13FBD282-3F29-4BAF-BB02-64422CAE2315}" name="CanBeSuggested" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BCABB276-88BA-4F24-A0D9-15F6C263304F}" name="Table61410" displayName="Table61410" ref="N2:Q5" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45" tableBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BCABB276-88BA-4F24-A0D9-15F6C263304F}" name="Table61410" displayName="Table61410" ref="N2:Q5" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40" tableBorderDxfId="39">
   <autoFilter ref="N2:Q5" xr:uid="{BCABB276-88BA-4F24-A0D9-15F6C263304F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5EB3FF8F-A636-4EEE-B8E1-1807AA06E054}" name="Id" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{CEAAA849-0E1B-4880-BB0D-7B68048D946C}" name="QuizId" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{DAED52E6-0B97-493B-8C38-2D2C83FDE3CC}" name="QuestionId" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{1B02BC0F-6221-4E41-A04C-917A41872E22}" name="Order" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{5EB3FF8F-A636-4EEE-B8E1-1807AA06E054}" name="Id" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{CEAAA849-0E1B-4880-BB0D-7B68048D946C}" name="QuizId" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{DAED52E6-0B97-493B-8C38-2D2C83FDE3CC}" name="QuestionId" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{1B02BC0F-6221-4E41-A04C-917A41872E22}" name="Order" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2769,10 +2747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A88412-2F2D-4255-B565-F6FDBB99DF9D}">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2785,7 +2763,7 @@
     <col min="6" max="6" width="10.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.88671875" style="1" customWidth="1"/>
     <col min="11" max="12" width="11.44140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="9.5546875" style="1" customWidth="1"/>
@@ -2804,7 +2782,7 @@
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -2821,7 +2799,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>2</v>
@@ -2839,19 +2817,19 @@
         <v>8</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2859,10 +2837,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2">
         <v>45590</v>
@@ -2874,10 +2852,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -2909,10 +2887,10 @@
         <v>2</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -2944,10 +2922,10 @@
         <v>3</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="1">
         <v>2</v>
@@ -2976,14 +2954,14 @@
         <v>9</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7" s="11"/>
       <c r="K7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O7" s="11"/>
     </row>
@@ -3001,31 +2979,31 @@
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -3058,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N9" s="9">
         <v>1</v>
@@ -3075,7 +3053,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -3100,7 +3078,7 @@
         <v>2</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N10" s="10">
         <v>2</v>
@@ -3111,7 +3089,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -3136,7 +3114,7 @@
         <v>3</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N11" s="9">
         <v>3</v>
@@ -3150,11 +3128,11 @@
         <v>14</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K13" s="11"/>
       <c r="M13" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N13" s="11"/>
       <c r="P13" s="5"/>
@@ -3165,10 +3143,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>2</v>
@@ -3177,22 +3155,22 @@
         <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="J14" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>2</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,16 +3178,16 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E15" s="9">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="G15" s="1">
         <v>0.25</v>
@@ -3221,13 +3199,13 @@
         <v>1</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M15" s="9">
         <v>1</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,16 +3213,16 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="10">
         <v>2</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16" s="1">
         <v>0.5</v>
@@ -3256,21 +3234,21 @@
         <v>2</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M16" s="10">
         <v>2</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -3279,7 +3257,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -3291,27 +3269,27 @@
         <v>3</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M17" s="9">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I19" s="11"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
     </row>
-    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
@@ -3319,7 +3297,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>18</v>
@@ -3334,29 +3312,29 @@
         <v>2</v>
       </c>
       <c r="I20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="M20" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
     </row>
-    <row r="21" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E21" s="2">
         <v>45566</v>
@@ -3376,18 +3354,18 @@
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
     </row>
-    <row r="22" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22" s="2">
         <v>45566</v>
@@ -3406,21 +3384,21 @@
       </c>
       <c r="O22" s="12"/>
       <c r="P22" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23" s="2">
         <v>45566</v>
@@ -3438,19 +3416,19 @@
         <v>3</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="13"/>
     </row>
-    <row r="26" spans="1:19" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>2</v>
       </c>
@@ -3461,63 +3439,60 @@
         <v>23</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="I26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>45590</v>
+      </c>
+      <c r="I27" s="1">
         <v>25</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="I27" s="2">
-        <v>45590</v>
-      </c>
-      <c r="J27" s="1">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2">
+        <v>45591</v>
+      </c>
+      <c r="I28" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
-        <v>2</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2</v>
-      </c>
-      <c r="I28" s="2">
-        <v>45591</v>
-      </c>
-      <c r="J28" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>3</v>
       </c>
@@ -3527,34 +3502,34 @@
       <c r="C29" s="1">
         <v>3</v>
       </c>
-      <c r="I29" s="2">
+      <c r="G29" s="2">
         <v>45592</v>
       </c>
-      <c r="J29" s="1">
+      <c r="I29" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="13"/>
     </row>
-    <row r="32" spans="1:19" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3571,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3585,10 +3560,10 @@
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3605,7 +3580,7 @@
         <v>3</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Quiz challenge/Quiz simple data.xlsx
+++ b/Quiz challenge/Quiz simple data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mentorship_Program\Quiz challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116F7026-0770-42F2-A765-2AA8049FE77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCF5B0F-121C-40C4-8FC9-028CFE633785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{7C43A32B-1E6E-4A0B-8D6F-624FBD4948C3}"/>
+    <workbookView xWindow="-23148" yWindow="-120" windowWidth="23256" windowHeight="12456" xr2:uid="{7C43A32B-1E6E-4A0B-8D6F-624FBD4948C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="97">
   <si>
     <t>Quiz</t>
   </si>
@@ -269,9 +269,6 @@
     <t>Tag</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>TagId</t>
   </si>
   <si>
@@ -305,9 +302,6 @@
     <t>nam@email.com</t>
   </si>
   <si>
-    <t>ohn@email.com</t>
-  </si>
-  <si>
     <t>Luffy@email.com</t>
   </si>
   <si>
@@ -329,7 +323,10 @@
     <t>EndTime</t>
   </si>
   <si>
-    <t>GetQuizResults trong QuizService Lỗi</t>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>john@email.com</t>
   </si>
 </sst>
 </file>
@@ -471,7 +468,44 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1400,63 +1434,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="7" tint="0.79998168889431442"/>
@@ -1546,6 +1523,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2248,71 +2245,71 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AEB1B0AB-8A75-404F-AC46-C9C83A408145}" name="Table4116" displayName="Table4116" ref="A32:E35" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AEB1B0AB-8A75-404F-AC46-C9C83A408145}" name="Table4116" displayName="Table4116" ref="A32:E35" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A32:E35" xr:uid="{AEB1B0AB-8A75-404F-AC46-C9C83A408145}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F53C790D-B82B-4BAF-8ED9-8E9B5E30319B}" name="Id" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{56133213-8380-4969-A3B5-7B121D24AC10}" name="UserQuizId " dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{939056A5-287C-41B8-AD54-CC6B7E027FE8}" name="QuestionId " dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{54E8C5D0-0929-4C3C-BBFE-434E783DC4F0}" name="AnswerId " dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{CA923F4E-9135-4650-820C-838E8B063852}" name="FreeText " dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{F53C790D-B82B-4BAF-8ED9-8E9B5E30319B}" name="Id" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{56133213-8380-4969-A3B5-7B121D24AC10}" name="UserQuizId " dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{939056A5-287C-41B8-AD54-CC6B7E027FE8}" name="QuestionId " dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{54E8C5D0-0929-4C3C-BBFE-434E783DC4F0}" name="AnswerId " dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{CA923F4E-9135-4650-820C-838E8B063852}" name="FreeText " dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5EF00002-90ED-499C-A6B7-295B92CCAD08}" name="Table791339" displayName="Table791339" ref="H20:J23" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5EF00002-90ED-499C-A6B7-295B92CCAD08}" name="Table791339" displayName="Table791339" ref="H20:J23" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27">
   <autoFilter ref="H20:J23" xr:uid="{5EF00002-90ED-499C-A6B7-295B92CCAD08}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{95A5F424-E322-4E19-BD04-574E4757D985}" name="Id" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{F47EAF99-A848-4F78-B3CF-8B338BCC4322}" name="UserId" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{8E39D621-8D60-49C1-9B93-416027E720CC}" name="RoleId" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{95A5F424-E322-4E19-BD04-574E4757D985}" name="Id" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{F47EAF99-A848-4F78-B3CF-8B338BCC4322}" name="UserId" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{8E39D621-8D60-49C1-9B93-416027E720CC}" name="RoleId" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3F1D2D8D-F15C-44EF-A0DC-AADD7EB5D9DD}" name="Table79133914" displayName="Table79133914" ref="J14:K17" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3F1D2D8D-F15C-44EF-A0DC-AADD7EB5D9DD}" name="Table79133914" displayName="Table79133914" ref="J14:K17" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" tableBorderDxfId="21">
   <autoFilter ref="J14:K17" xr:uid="{3F1D2D8D-F15C-44EF-A0DC-AADD7EB5D9DD}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C6F3F560-D724-4DE4-ABDC-739035A53B46}" name="Id" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{8305E703-F7D3-4F2F-BBAD-2F1F7B3FF6CD}" name="RoleName" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{C6F3F560-D724-4DE4-ABDC-739035A53B46}" name="Id" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{8305E703-F7D3-4F2F-BBAD-2F1F7B3FF6CD}" name="RoleName" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{758FCF58-11CF-4F6E-BB37-CBCB4FDD9179}" name="Table7913391415" displayName="Table7913391415" ref="M14:N17" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{758FCF58-11CF-4F6E-BB37-CBCB4FDD9179}" name="Table7913391415" displayName="Table7913391415" ref="M14:N17" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
   <autoFilter ref="M14:N17" xr:uid="{758FCF58-11CF-4F6E-BB37-CBCB4FDD9179}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C2533080-054E-44EF-A66B-1FF609F85487}" name="Id" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{7AE9E73D-B773-4753-A6F3-9EF8AF42E6CE}" name="TypeName" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{C2533080-054E-44EF-A66B-1FF609F85487}" name="Id" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{7AE9E73D-B773-4753-A6F3-9EF8AF42E6CE}" name="TypeName" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{E20F82DB-463C-45EB-86AA-455A74ECDFCB}" name="Table791339141516" displayName="Table791339141516" ref="K8:L11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{E20F82DB-463C-45EB-86AA-455A74ECDFCB}" name="Table791339141516" displayName="Table791339141516" ref="K8:L11" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="K8:L11" xr:uid="{E20F82DB-463C-45EB-86AA-455A74ECDFCB}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C7A1C32B-C429-4703-A9AA-39EC009955C1}" name="Id" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{7A920786-0E2D-4329-81AA-1DAE95E5D364}" name="TypeName" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{C7A1C32B-C429-4703-A9AA-39EC009955C1}" name="Id" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{7A920786-0E2D-4329-81AA-1DAE95E5D364}" name="TypeName" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{946485ED-02FC-46A8-8EF9-800E43C9FAA1}" name="Table7913317" displayName="Table7913317" ref="N8:P11" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{946485ED-02FC-46A8-8EF9-800E43C9FAA1}" name="Table7913317" displayName="Table7913317" ref="N8:P11" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="N8:P11" xr:uid="{946485ED-02FC-46A8-8EF9-800E43C9FAA1}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FB3FB424-4531-48FD-A206-D2957E2A26B0}" name="Id" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{0A967AD0-0A48-4A60-B1C6-C853FCAEC469}" name="QuizId" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{F5E411F8-4FC0-4725-943A-733B504B7A16}" name="TagId" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{FB3FB424-4531-48FD-A206-D2957E2A26B0}" name="Id" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{0A967AD0-0A48-4A60-B1C6-C853FCAEC469}" name="QuizId" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{F5E411F8-4FC0-4725-943A-733B504B7A16}" name="TagId" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2368,63 +2365,63 @@
     <tableColumn id="7" xr3:uid="{E1EEA3B4-F290-4A54-898A-8B5CFDB3CB1C}" name="Score" dataDxfId="67"/>
     <tableColumn id="8" xr3:uid="{DA696183-9435-4440-BB04-D8B2FCADC7C2}" name="TotalQuestions" dataDxfId="66"/>
     <tableColumn id="9" xr3:uid="{FE2BB387-60F6-45F6-A1E4-FE7CB7937A2C}" name="CorrectAnswers" dataDxfId="65"/>
-    <tableColumn id="10" xr3:uid="{DA336C9B-D10C-4600-8A7B-6F37F4F7AEB9}" name="StartTime" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{6A6B5A56-9567-4C85-AC18-82925424D272}" name="EndTime" dataDxfId="64"/>
-    <tableColumn id="11" xr3:uid="{75744650-9CE9-45A0-9B81-F1C65C043216}" name="CompletionTime" dataDxfId="63"/>
+    <tableColumn id="10" xr3:uid="{DA336C9B-D10C-4600-8A7B-6F37F4F7AEB9}" name="StartTime" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{6A6B5A56-9567-4C85-AC18-82925424D272}" name="EndTime" dataDxfId="63"/>
+    <tableColumn id="11" xr3:uid="{75744650-9CE9-45A0-9B81-F1C65C043216}" name="CompletionTime" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{42F24B4A-E5FC-4580-AC79-7A87B6E74532}" name="Table41012" displayName="Table41012" ref="A20:F23" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{42F24B4A-E5FC-4580-AC79-7A87B6E74532}" name="Table41012" displayName="Table41012" ref="A20:F23" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <autoFilter ref="A20:F23" xr:uid="{42F24B4A-E5FC-4580-AC79-7A87B6E74532}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AB2F2B92-4F5E-45D5-94FB-ADB8435B9566}" name="Id" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{B9827B33-45BE-47C1-A171-29F23AD74DC2}" name="UserName" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{B49FE75E-62B6-4D37-8C90-5095A776B904}" name="Column1" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{D74DA2E3-95DA-43B1-B28C-B64A14ABA8B1}" name="Password" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{61E76584-885D-4BCA-A61B-05EE3807BA29}" name="CreatedAt" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{C5B91E7E-7207-4164-A092-76CF2F672774}" name="UpdateAt" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{AB2F2B92-4F5E-45D5-94FB-ADB8435B9566}" name="Id" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{B9827B33-45BE-47C1-A171-29F23AD74DC2}" name="UserName" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{B49FE75E-62B6-4D37-8C90-5095A776B904}" name="Email" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{D74DA2E3-95DA-43B1-B28C-B64A14ABA8B1}" name="Password" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{61E76584-885D-4BCA-A61B-05EE3807BA29}" name="CreatedAt" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{C5B91E7E-7207-4164-A092-76CF2F672774}" name="UpdateAt" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A3741F9-7340-4634-958D-243B2CB30081}" name="Table79133" displayName="Table79133" ref="G8:I11" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53" tableBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A3741F9-7340-4634-958D-243B2CB30081}" name="Table79133" displayName="Table79133" ref="G8:I11" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" tableBorderDxfId="54">
   <autoFilter ref="G8:I11" xr:uid="{0A3741F9-7340-4634-958D-243B2CB30081}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{31F14D34-66D8-41C0-A3EA-4754B439DA63}" name="Id" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{8E3A139A-5007-4A16-BB0C-C46739F67B30}" name="QuestionId" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{F32C6264-78B0-42EF-820B-362961B4B35B}" name="AnswerId" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{31F14D34-66D8-41C0-A3EA-4754B439DA63}" name="Id" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{8E3A139A-5007-4A16-BB0C-C46739F67B30}" name="QuestionId" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{F32C6264-78B0-42EF-820B-362961B4B35B}" name="AnswerId" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1FA08D23-38C9-4F9D-A38F-2FAD175CEAC5}" name="Table4" displayName="Table4" ref="A8:E11" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1FA08D23-38C9-4F9D-A38F-2FAD175CEAC5}" name="Table4" displayName="Table4" ref="A8:E11" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
   <autoFilter ref="A8:E11" xr:uid="{1FA08D23-38C9-4F9D-A38F-2FAD175CEAC5}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6D940C02-9530-4EAD-9CFB-AEBCF3BB6A31}" name="Id" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{12869B36-21EC-4622-8455-75F60E2AD58B}" name="AnswerText" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{97B8C5D1-BBA2-4E43-902B-8228BD6EFBA7}" name="IsCorrect" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{415B0A9F-E9AC-4B8E-9FF6-5F36248C5433}" name="IsDynamic" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{13FBD282-3F29-4BAF-BB02-64422CAE2315}" name="CanBeSuggested" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{6D940C02-9530-4EAD-9CFB-AEBCF3BB6A31}" name="Id" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{12869B36-21EC-4622-8455-75F60E2AD58B}" name="AnswerText" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{97B8C5D1-BBA2-4E43-902B-8228BD6EFBA7}" name="IsCorrect" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{415B0A9F-E9AC-4B8E-9FF6-5F36248C5433}" name="IsDynamic" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{13FBD282-3F29-4BAF-BB02-64422CAE2315}" name="CanBeSuggested" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BCABB276-88BA-4F24-A0D9-15F6C263304F}" name="Table61410" displayName="Table61410" ref="N2:Q5" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40" tableBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BCABB276-88BA-4F24-A0D9-15F6C263304F}" name="Table61410" displayName="Table61410" ref="N2:Q5" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
   <autoFilter ref="N2:Q5" xr:uid="{BCABB276-88BA-4F24-A0D9-15F6C263304F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5EB3FF8F-A636-4EEE-B8E1-1807AA06E054}" name="Id" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{CEAAA849-0E1B-4880-BB0D-7B68048D946C}" name="QuizId" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{DAED52E6-0B97-493B-8C38-2D2C83FDE3CC}" name="QuestionId" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{1B02BC0F-6221-4E41-A04C-917A41872E22}" name="Order" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{5EB3FF8F-A636-4EEE-B8E1-1807AA06E054}" name="Id" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{CEAAA849-0E1B-4880-BB0D-7B68048D946C}" name="QuizId" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{DAED52E6-0B97-493B-8C38-2D2C83FDE3CC}" name="QuestionId" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{1B02BC0F-6221-4E41-A04C-917A41872E22}" name="Order" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2749,32 +2746,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A88412-2F2D-4255-B565-F6FDBB99DF9D}">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" style="1" customWidth="1"/>
-    <col min="11" max="12" width="11.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="1"/>
     <col min="15" max="15" width="11" style="1" customWidth="1"/>
-    <col min="16" max="17" width="11.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="1"/>
+    <col min="16" max="17" width="11.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2785,7 +2782,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -2817,7 +2814,7 @@
         <v>8</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>2</v>
@@ -2832,12 +2829,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>45</v>
@@ -2879,7 +2876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2914,7 +2911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2949,7 +2946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2961,11 +2958,11 @@
         <v>76</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O7" s="11"/>
     </row>
-    <row r="8" spans="1:17" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>2</v>
       </c>
@@ -3003,10 +3000,10 @@
         <v>37</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -3036,7 +3033,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N9" s="9">
         <v>1</v>
@@ -3048,7 +3045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -3078,13 +3075,13 @@
         <v>2</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N10" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>3</v>
       </c>
@@ -3114,13 +3111,13 @@
         <v>3</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N11" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -3138,7 +3135,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="1:17" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>2</v>
       </c>
@@ -3173,7 +3170,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>1</v>
       </c>
@@ -3205,10 +3202,10 @@
         <v>1</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2</v>
       </c>
@@ -3240,10 +3237,10 @@
         <v>2</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>3</v>
       </c>
@@ -3275,10 +3272,10 @@
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -3289,7 +3286,7 @@
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
     </row>
-    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
@@ -3297,7 +3294,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>18</v>
@@ -3318,20 +3315,20 @@
         <v>64</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
     </row>
-    <row r="21" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>88</v>
+      <c r="C21" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>59</v>
@@ -3354,15 +3351,15 @@
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
     </row>
-    <row r="22" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>89</v>
+      <c r="C22" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>70</v>
@@ -3384,18 +3381,18 @@
       </c>
       <c r="O22" s="12"/>
       <c r="P22" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>90</v>
+      <c r="C23" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>71</v>
@@ -3415,20 +3412,17 @@
       <c r="J23" s="1">
         <v>3</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>97</v>
-      </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="13"/>
     </row>
-    <row r="26" spans="1:18" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>2</v>
       </c>
@@ -3439,26 +3433,26 @@
         <v>23</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>1</v>
       </c>
@@ -3475,7 +3469,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>2</v>
       </c>
@@ -3492,7 +3486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>3</v>
       </c>
@@ -3509,13 +3503,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="13"/>
     </row>
-    <row r="32" spans="1:18" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>2</v>
       </c>
@@ -3532,7 +3526,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>1</v>
       </c>
@@ -3549,7 +3543,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>2</v>
       </c>
@@ -3566,7 +3560,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>3</v>
       </c>

--- a/Quiz challenge/Quiz simple data.xlsx
+++ b/Quiz challenge/Quiz simple data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mentorship_Program\Quiz challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCF5B0F-121C-40C4-8FC9-028CFE633785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E83BBB-CE61-4D7A-84F1-0A111FC9B5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-120" windowWidth="23256" windowHeight="12456" xr2:uid="{7C43A32B-1E6E-4A0B-8D6F-624FBD4948C3}"/>
   </bookViews>
@@ -468,63 +468,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1397,6 +1340,63 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2245,71 +2245,71 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AEB1B0AB-8A75-404F-AC46-C9C83A408145}" name="Table4116" displayName="Table4116" ref="A32:E35" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AEB1B0AB-8A75-404F-AC46-C9C83A408145}" name="Table4116" displayName="Table4116" ref="A32:E35" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A32:E35" xr:uid="{AEB1B0AB-8A75-404F-AC46-C9C83A408145}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F53C790D-B82B-4BAF-8ED9-8E9B5E30319B}" name="Id" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{56133213-8380-4969-A3B5-7B121D24AC10}" name="UserQuizId " dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{939056A5-287C-41B8-AD54-CC6B7E027FE8}" name="QuestionId " dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{54E8C5D0-0929-4C3C-BBFE-434E783DC4F0}" name="AnswerId " dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{CA923F4E-9135-4650-820C-838E8B063852}" name="FreeText " dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{F53C790D-B82B-4BAF-8ED9-8E9B5E30319B}" name="Id" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{56133213-8380-4969-A3B5-7B121D24AC10}" name="UserQuizId " dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{939056A5-287C-41B8-AD54-CC6B7E027FE8}" name="QuestionId " dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{54E8C5D0-0929-4C3C-BBFE-434E783DC4F0}" name="AnswerId " dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{CA923F4E-9135-4650-820C-838E8B063852}" name="FreeText " dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5EF00002-90ED-499C-A6B7-295B92CCAD08}" name="Table791339" displayName="Table791339" ref="H20:J23" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5EF00002-90ED-499C-A6B7-295B92CCAD08}" name="Table791339" displayName="Table791339" ref="H20:J23" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24">
   <autoFilter ref="H20:J23" xr:uid="{5EF00002-90ED-499C-A6B7-295B92CCAD08}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{95A5F424-E322-4E19-BD04-574E4757D985}" name="Id" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{F47EAF99-A848-4F78-B3CF-8B338BCC4322}" name="UserId" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{8E39D621-8D60-49C1-9B93-416027E720CC}" name="RoleId" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{95A5F424-E322-4E19-BD04-574E4757D985}" name="Id" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{F47EAF99-A848-4F78-B3CF-8B338BCC4322}" name="UserId" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{8E39D621-8D60-49C1-9B93-416027E720CC}" name="RoleId" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3F1D2D8D-F15C-44EF-A0DC-AADD7EB5D9DD}" name="Table79133914" displayName="Table79133914" ref="J14:K17" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" tableBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3F1D2D8D-F15C-44EF-A0DC-AADD7EB5D9DD}" name="Table79133914" displayName="Table79133914" ref="J14:K17" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="J14:K17" xr:uid="{3F1D2D8D-F15C-44EF-A0DC-AADD7EB5D9DD}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C6F3F560-D724-4DE4-ABDC-739035A53B46}" name="Id" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{8305E703-F7D3-4F2F-BBAD-2F1F7B3FF6CD}" name="RoleName" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{C6F3F560-D724-4DE4-ABDC-739035A53B46}" name="Id" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{8305E703-F7D3-4F2F-BBAD-2F1F7B3FF6CD}" name="RoleName" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{758FCF58-11CF-4F6E-BB37-CBCB4FDD9179}" name="Table7913391415" displayName="Table7913391415" ref="M14:N17" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{758FCF58-11CF-4F6E-BB37-CBCB4FDD9179}" name="Table7913391415" displayName="Table7913391415" ref="M14:N17" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="M14:N17" xr:uid="{758FCF58-11CF-4F6E-BB37-CBCB4FDD9179}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C2533080-054E-44EF-A66B-1FF609F85487}" name="Id" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{7AE9E73D-B773-4753-A6F3-9EF8AF42E6CE}" name="TypeName" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{C2533080-054E-44EF-A66B-1FF609F85487}" name="Id" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{7AE9E73D-B773-4753-A6F3-9EF8AF42E6CE}" name="TypeName" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{E20F82DB-463C-45EB-86AA-455A74ECDFCB}" name="Table791339141516" displayName="Table791339141516" ref="K8:L11" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{E20F82DB-463C-45EB-86AA-455A74ECDFCB}" name="Table791339141516" displayName="Table791339141516" ref="K8:L11" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="K8:L11" xr:uid="{E20F82DB-463C-45EB-86AA-455A74ECDFCB}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C7A1C32B-C429-4703-A9AA-39EC009955C1}" name="Id" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{7A920786-0E2D-4329-81AA-1DAE95E5D364}" name="TypeName" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{C7A1C32B-C429-4703-A9AA-39EC009955C1}" name="Id" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{7A920786-0E2D-4329-81AA-1DAE95E5D364}" name="TypeName" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{946485ED-02FC-46A8-8EF9-800E43C9FAA1}" name="Table7913317" displayName="Table7913317" ref="N8:P11" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{946485ED-02FC-46A8-8EF9-800E43C9FAA1}" name="Table7913317" displayName="Table7913317" ref="N8:P11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="N8:P11" xr:uid="{946485ED-02FC-46A8-8EF9-800E43C9FAA1}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FB3FB424-4531-48FD-A206-D2957E2A26B0}" name="Id" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{0A967AD0-0A48-4A60-B1C6-C853FCAEC469}" name="QuizId" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{F5E411F8-4FC0-4725-943A-733B504B7A16}" name="TagId" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{FB3FB424-4531-48FD-A206-D2957E2A26B0}" name="Id" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{0A967AD0-0A48-4A60-B1C6-C853FCAEC469}" name="QuizId" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{F5E411F8-4FC0-4725-943A-733B504B7A16}" name="TagId" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2378,50 +2378,50 @@
   <autoFilter ref="A20:F23" xr:uid="{42F24B4A-E5FC-4580-AC79-7A87B6E74532}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{AB2F2B92-4F5E-45D5-94FB-ADB8435B9566}" name="Id" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{B9827B33-45BE-47C1-A171-29F23AD74DC2}" name="UserName" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{B49FE75E-62B6-4D37-8C90-5095A776B904}" name="Email" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{D74DA2E3-95DA-43B1-B28C-B64A14ABA8B1}" name="Password" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{61E76584-885D-4BCA-A61B-05EE3807BA29}" name="CreatedAt" dataDxfId="58"/>
-    <tableColumn id="6" xr3:uid="{C5B91E7E-7207-4164-A092-76CF2F672774}" name="UpdateAt" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{B9827B33-45BE-47C1-A171-29F23AD74DC2}" name="UserName" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{B49FE75E-62B6-4D37-8C90-5095A776B904}" name="Email" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{D74DA2E3-95DA-43B1-B28C-B64A14ABA8B1}" name="Password" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{61E76584-885D-4BCA-A61B-05EE3807BA29}" name="CreatedAt" dataDxfId="55"/>
+    <tableColumn id="6" xr3:uid="{C5B91E7E-7207-4164-A092-76CF2F672774}" name="UpdateAt" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A3741F9-7340-4634-958D-243B2CB30081}" name="Table79133" displayName="Table79133" ref="G8:I11" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" tableBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A3741F9-7340-4634-958D-243B2CB30081}" name="Table79133" displayName="Table79133" ref="G8:I11" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52" tableBorderDxfId="51">
   <autoFilter ref="G8:I11" xr:uid="{0A3741F9-7340-4634-958D-243B2CB30081}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{31F14D34-66D8-41C0-A3EA-4754B439DA63}" name="Id" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{8E3A139A-5007-4A16-BB0C-C46739F67B30}" name="QuestionId" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{F32C6264-78B0-42EF-820B-362961B4B35B}" name="AnswerId" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{31F14D34-66D8-41C0-A3EA-4754B439DA63}" name="Id" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{8E3A139A-5007-4A16-BB0C-C46739F67B30}" name="QuestionId" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{F32C6264-78B0-42EF-820B-362961B4B35B}" name="AnswerId" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1FA08D23-38C9-4F9D-A38F-2FAD175CEAC5}" name="Table4" displayName="Table4" ref="A8:E11" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1FA08D23-38C9-4F9D-A38F-2FAD175CEAC5}" name="Table4" displayName="Table4" ref="A8:E11" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A8:E11" xr:uid="{1FA08D23-38C9-4F9D-A38F-2FAD175CEAC5}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6D940C02-9530-4EAD-9CFB-AEBCF3BB6A31}" name="Id" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{12869B36-21EC-4622-8455-75F60E2AD58B}" name="AnswerText" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{97B8C5D1-BBA2-4E43-902B-8228BD6EFBA7}" name="IsCorrect" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{415B0A9F-E9AC-4B8E-9FF6-5F36248C5433}" name="IsDynamic" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{13FBD282-3F29-4BAF-BB02-64422CAE2315}" name="CanBeSuggested" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{6D940C02-9530-4EAD-9CFB-AEBCF3BB6A31}" name="Id" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{12869B36-21EC-4622-8455-75F60E2AD58B}" name="AnswerText" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{97B8C5D1-BBA2-4E43-902B-8228BD6EFBA7}" name="IsCorrect" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{415B0A9F-E9AC-4B8E-9FF6-5F36248C5433}" name="IsDynamic" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{13FBD282-3F29-4BAF-BB02-64422CAE2315}" name="CanBeSuggested" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BCABB276-88BA-4F24-A0D9-15F6C263304F}" name="Table61410" displayName="Table61410" ref="N2:Q5" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BCABB276-88BA-4F24-A0D9-15F6C263304F}" name="Table61410" displayName="Table61410" ref="N2:Q5" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="38">
   <autoFilter ref="N2:Q5" xr:uid="{BCABB276-88BA-4F24-A0D9-15F6C263304F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5EB3FF8F-A636-4EEE-B8E1-1807AA06E054}" name="Id" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{CEAAA849-0E1B-4880-BB0D-7B68048D946C}" name="QuizId" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{DAED52E6-0B97-493B-8C38-2D2C83FDE3CC}" name="QuestionId" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{1B02BC0F-6221-4E41-A04C-917A41872E22}" name="Order" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{5EB3FF8F-A636-4EEE-B8E1-1807AA06E054}" name="Id" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{CEAAA849-0E1B-4880-BB0D-7B68048D946C}" name="QuizId" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{DAED52E6-0B97-493B-8C38-2D2C83FDE3CC}" name="QuestionId" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{1B02BC0F-6221-4E41-A04C-917A41872E22}" name="Order" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2746,8 +2746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A88412-2F2D-4255-B565-F6FDBB99DF9D}">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>

--- a/Quiz challenge/Quiz simple data.xlsx
+++ b/Quiz challenge/Quiz simple data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mentorship_Program\Quiz challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF906E7-AC5B-4386-9FC9-4AD9FCE6B744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5444597F-0168-44F5-87FA-D04818457822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-120" windowWidth="23256" windowHeight="12456" xr2:uid="{7C43A32B-1E6E-4A0B-8D6F-624FBD4948C3}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{7C43A32B-1E6E-4A0B-8D6F-624FBD4948C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="97">
   <si>
     <t>Quiz</t>
   </si>
@@ -327,9 +327,6 @@
   </si>
   <si>
     <t>john@email.com</t>
-  </si>
-  <si>
-    <t>Thiếu các testmethod trog QuizRepository</t>
   </si>
 </sst>
 </file>
@@ -450,6 +447,44 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -464,6 +499,13 @@
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <strike val="0"/>
@@ -482,44 +524,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -536,6 +540,25 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -550,6 +573,13 @@
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <strike val="0"/>
@@ -568,25 +598,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -603,6 +614,25 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -617,6 +647,13 @@
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <strike val="0"/>
@@ -635,25 +672,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -670,6 +688,25 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -684,6 +721,13 @@
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <strike val="0"/>
@@ -702,25 +746,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -737,6 +762,44 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -751,6 +814,13 @@
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <strike val="0"/>
@@ -765,79 +835,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -969,6 +966,25 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -985,6 +1001,63 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -999,61 +1072,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1085,6 +1108,86 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1101,87 +1204,61 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1200,6 +1277,13 @@
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <strike val="0"/>
@@ -1214,79 +1298,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1660,6 +1671,25 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1676,6 +1706,63 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1690,61 +1777,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1781,6 +1818,44 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1795,42 +1870,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1847,25 +1891,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2014,136 +2039,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="7"/>
@@ -2151,67 +2046,169 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-      </border>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2227,58 +2224,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A79962B-AEC1-4BA2-8BBE-60DA57A5CFBD}" name="Table1" displayName="Table1" ref="A2:E5" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A79962B-AEC1-4BA2-8BBE-60DA57A5CFBD}" name="Table1" displayName="Table1" ref="A2:E5" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
   <autoFilter ref="A2:E5" xr:uid="{0A79962B-AEC1-4BA2-8BBE-60DA57A5CFBD}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F238FED4-8AD9-415E-BF00-9C7B319C1400}" name="Id" dataDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{E0D6CABF-B5D0-4825-9E10-24C9F93DB042}" name="Title" dataDxfId="90"/>
-    <tableColumn id="3" xr3:uid="{6B319D20-A60B-4504-9908-A8CF0C774521}" name="Description" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{AB97B883-C760-4355-97E9-1D0BC51D23A3}" name="CreatedAt" dataDxfId="88"/>
-    <tableColumn id="5" xr3:uid="{773CB633-5043-4D94-8C79-DA10214C4278}" name="TimeLimit" dataDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{F238FED4-8AD9-415E-BF00-9C7B319C1400}" name="Id" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{E0D6CABF-B5D0-4825-9E10-24C9F93DB042}" name="Title" dataDxfId="98"/>
+    <tableColumn id="3" xr3:uid="{6B319D20-A60B-4504-9908-A8CF0C774521}" name="Description" dataDxfId="97"/>
+    <tableColumn id="4" xr3:uid="{AB97B883-C760-4355-97E9-1D0BC51D23A3}" name="CreatedAt" dataDxfId="96"/>
+    <tableColumn id="5" xr3:uid="{773CB633-5043-4D94-8C79-DA10214C4278}" name="TimeLimit" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AEB1B0AB-8A75-404F-AC46-C9C83A408145}" name="Table4116" displayName="Table4116" ref="A32:E35" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AEB1B0AB-8A75-404F-AC46-C9C83A408145}" name="Table4116" displayName="Table4116" ref="A32:E35" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A32:E35" xr:uid="{AEB1B0AB-8A75-404F-AC46-C9C83A408145}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F53C790D-B82B-4BAF-8ED9-8E9B5E30319B}" name="Id" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{56133213-8380-4969-A3B5-7B121D24AC10}" name="UserQuizId " dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{939056A5-287C-41B8-AD54-CC6B7E027FE8}" name="QuestionId " dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{54E8C5D0-0929-4C3C-BBFE-434E783DC4F0}" name="AnswerId " dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{CA923F4E-9135-4650-820C-838E8B063852}" name="FreeText " dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{F53C790D-B82B-4BAF-8ED9-8E9B5E30319B}" name="Id" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{56133213-8380-4969-A3B5-7B121D24AC10}" name="UserQuizId " dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{939056A5-287C-41B8-AD54-CC6B7E027FE8}" name="QuestionId " dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{54E8C5D0-0929-4C3C-BBFE-434E783DC4F0}" name="AnswerId " dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{CA923F4E-9135-4650-820C-838E8B063852}" name="FreeText " dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5EF00002-90ED-499C-A6B7-295B92CCAD08}" name="Table791339" displayName="Table791339" ref="H20:J23" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5EF00002-90ED-499C-A6B7-295B92CCAD08}" name="Table791339" displayName="Table791339" ref="H20:J23" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24">
   <autoFilter ref="H20:J23" xr:uid="{5EF00002-90ED-499C-A6B7-295B92CCAD08}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{95A5F424-E322-4E19-BD04-574E4757D985}" name="Id" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{F47EAF99-A848-4F78-B3CF-8B338BCC4322}" name="UserId" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{8E39D621-8D60-49C1-9B93-416027E720CC}" name="RoleId" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{95A5F424-E322-4E19-BD04-574E4757D985}" name="Id" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{F47EAF99-A848-4F78-B3CF-8B338BCC4322}" name="UserId" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{8E39D621-8D60-49C1-9B93-416027E720CC}" name="RoleId" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3F1D2D8D-F15C-44EF-A0DC-AADD7EB5D9DD}" name="Table79133914" displayName="Table79133914" ref="J14:K17" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3F1D2D8D-F15C-44EF-A0DC-AADD7EB5D9DD}" name="Table79133914" displayName="Table79133914" ref="J14:K17" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="J14:K17" xr:uid="{3F1D2D8D-F15C-44EF-A0DC-AADD7EB5D9DD}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C6F3F560-D724-4DE4-ABDC-739035A53B46}" name="Id" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{8305E703-F7D3-4F2F-BBAD-2F1F7B3FF6CD}" name="RoleName" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{C6F3F560-D724-4DE4-ABDC-739035A53B46}" name="Id" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{8305E703-F7D3-4F2F-BBAD-2F1F7B3FF6CD}" name="RoleName" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{758FCF58-11CF-4F6E-BB37-CBCB4FDD9179}" name="Table7913391415" displayName="Table7913391415" ref="M14:N17" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{758FCF58-11CF-4F6E-BB37-CBCB4FDD9179}" name="Table7913391415" displayName="Table7913391415" ref="M14:N17" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="M14:N17" xr:uid="{758FCF58-11CF-4F6E-BB37-CBCB4FDD9179}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C2533080-054E-44EF-A66B-1FF609F85487}" name="Id" dataDxfId="12"/>
@@ -2289,135 +2286,135 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{E20F82DB-463C-45EB-86AA-455A74ECDFCB}" name="Table791339141516" displayName="Table791339141516" ref="K8:L11" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{E20F82DB-463C-45EB-86AA-455A74ECDFCB}" name="Table791339141516" displayName="Table791339141516" ref="K8:L11" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="K8:L11" xr:uid="{E20F82DB-463C-45EB-86AA-455A74ECDFCB}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C7A1C32B-C429-4703-A9AA-39EC009955C1}" name="Id" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{7A920786-0E2D-4329-81AA-1DAE95E5D364}" name="TypeName" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{C7A1C32B-C429-4703-A9AA-39EC009955C1}" name="Id" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{7A920786-0E2D-4329-81AA-1DAE95E5D364}" name="TypeName" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{946485ED-02FC-46A8-8EF9-800E43C9FAA1}" name="Table7913317" displayName="Table7913317" ref="N8:P11" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{946485ED-02FC-46A8-8EF9-800E43C9FAA1}" name="Table7913317" displayName="Table7913317" ref="N8:P11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="N8:P11" xr:uid="{946485ED-02FC-46A8-8EF9-800E43C9FAA1}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FB3FB424-4531-48FD-A206-D2957E2A26B0}" name="Id" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{0A967AD0-0A48-4A60-B1C6-C853FCAEC469}" name="QuizId" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{F5E411F8-4FC0-4725-943A-733B504B7A16}" name="TagId" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{FB3FB424-4531-48FD-A206-D2957E2A26B0}" name="Id" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{0A967AD0-0A48-4A60-B1C6-C853FCAEC469}" name="QuizId" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{F5E411F8-4FC0-4725-943A-733B504B7A16}" name="TagId" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9237A2E-255C-4FAC-BE16-9DC8EE8ED36E}" name="Table3" displayName="Table3" ref="G2:L5" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77" tableBorderDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9237A2E-255C-4FAC-BE16-9DC8EE8ED36E}" name="Table3" displayName="Table3" ref="G2:L5" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93" tableBorderDxfId="92">
   <autoFilter ref="G2:L5" xr:uid="{B9237A2E-255C-4FAC-BE16-9DC8EE8ED36E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{11A3F043-76AA-497A-8E70-04B4EEFC231A}" name="Id" dataDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{D440EAB9-2CA3-43CA-9FA6-D491B473723D}" name="Content" dataDxfId="83"/>
-    <tableColumn id="3" xr3:uid="{B76291C2-CD8B-4555-83B5-1C9882F49F3C}" name="Format" dataDxfId="82"/>
-    <tableColumn id="4" xr3:uid="{86322B2A-4305-45A0-80DA-5F1A034A190A}" name="LevelId" dataDxfId="81"/>
-    <tableColumn id="5" xr3:uid="{7FAC9DF3-7A40-4212-B353-A4F4CE9CCB6F}" name="TopicId" dataDxfId="80"/>
-    <tableColumn id="6" xr3:uid="{E1D4D179-9F5D-466C-B4DF-CFA76EAEB4B7}" name="TypeId" dataDxfId="79"/>
+    <tableColumn id="1" xr3:uid="{11A3F043-76AA-497A-8E70-04B4EEFC231A}" name="Id" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{D440EAB9-2CA3-43CA-9FA6-D491B473723D}" name="Content" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{B76291C2-CD8B-4555-83B5-1C9882F49F3C}" name="Format" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{86322B2A-4305-45A0-80DA-5F1A034A190A}" name="LevelId" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{7FAC9DF3-7A40-4212-B353-A4F4CE9CCB6F}" name="TopicId" dataDxfId="87"/>
+    <tableColumn id="6" xr3:uid="{E1D4D179-9F5D-466C-B4DF-CFA76EAEB4B7}" name="TypeId" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D07F7F1F-0C11-4420-86ED-32ADFC35D176}" name="Table6" displayName="Table6" ref="A14:C17" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72" tableBorderDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D07F7F1F-0C11-4420-86ED-32ADFC35D176}" name="Table6" displayName="Table6" ref="A14:C17" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84" tableBorderDxfId="83">
   <autoFilter ref="A14:C17" xr:uid="{D07F7F1F-0C11-4420-86ED-32ADFC35D176}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9C6E43C9-D9C3-4FF2-B9D8-AF875E68B807}" name="Id" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{2FF6299F-DC71-4BD0-AB90-FAAD1B4B5A53}" name="Name" dataDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{ABC80DC0-4DAE-40AC-AF3F-0A7147347D49}" name="ParentTopicID" dataDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{9C6E43C9-D9C3-4FF2-B9D8-AF875E68B807}" name="Id" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{2FF6299F-DC71-4BD0-AB90-FAAD1B4B5A53}" name="Name" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{ABC80DC0-4DAE-40AC-AF3F-0A7147347D49}" name="ParentTopicID" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{09B70181-5D84-477D-BD87-E795B37276C4}" name="Table7" displayName="Table7" ref="E14:H17" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66" tableBorderDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{09B70181-5D84-477D-BD87-E795B37276C4}" name="Table7" displayName="Table7" ref="E14:H17" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78" tableBorderDxfId="77">
   <autoFilter ref="E14:H17" xr:uid="{09B70181-5D84-477D-BD87-E795B37276C4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{328F0973-54AB-4F4E-B9DF-38A92B7D0EB7}" name="Id" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{D0E3492C-A244-453E-ADF6-AC2921F6BE53}" name="LevelName" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{32553B2B-51C8-4027-B7F6-F78571A9A039}" name="ScoreWeight" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{144C7DD5-B5F0-445F-9D2E-440C8ABE9A42}" name="TimeConstraint" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{328F0973-54AB-4F4E-B9DF-38A92B7D0EB7}" name="Id" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{D0E3492C-A244-453E-ADF6-AC2921F6BE53}" name="LevelName" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{32553B2B-51C8-4027-B7F6-F78571A9A039}" name="ScoreWeight" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{144C7DD5-B5F0-445F-9D2E-440C8ABE9A42}" name="TimeConstraint" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B2773DDF-A39C-44D7-AEDC-CF8D980FB8FF}" name="Table411" displayName="Table411" ref="A26:I29" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B2773DDF-A39C-44D7-AEDC-CF8D980FB8FF}" name="Table411" displayName="Table411" ref="A26:I29" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
   <autoFilter ref="A26:I29" xr:uid="{B2773DDF-A39C-44D7-AEDC-CF8D980FB8FF}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{BA579B0D-99C8-4846-AA2A-58710BEE3F30}" name="Id" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{F494C43B-BA5A-40CF-A7AE-537CD9375379}" name="UserID" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{68945211-9457-454C-A551-79DA66D3771B}" name="QuizID" dataDxfId="63"/>
-    <tableColumn id="7" xr3:uid="{E1EEA3B4-F290-4A54-898A-8B5CFDB3CB1C}" name="Score" dataDxfId="62"/>
-    <tableColumn id="8" xr3:uid="{DA696183-9435-4440-BB04-D8B2FCADC7C2}" name="TotalQuestions" dataDxfId="61"/>
-    <tableColumn id="9" xr3:uid="{FE2BB387-60F6-45F6-A1E4-FE7CB7937A2C}" name="CorrectAnswers" dataDxfId="60"/>
-    <tableColumn id="10" xr3:uid="{DA336C9B-D10C-4600-8A7B-6F37F4F7AEB9}" name="StartTime" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{6A6B5A56-9567-4C85-AC18-82925424D272}" name="EndTime" dataDxfId="58"/>
-    <tableColumn id="11" xr3:uid="{75744650-9CE9-45A0-9B81-F1C65C043216}" name="CompletionTime" dataDxfId="57"/>
+    <tableColumn id="1" xr3:uid="{BA579B0D-99C8-4846-AA2A-58710BEE3F30}" name="Id" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{F494C43B-BA5A-40CF-A7AE-537CD9375379}" name="UserID" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{68945211-9457-454C-A551-79DA66D3771B}" name="QuizID" dataDxfId="68"/>
+    <tableColumn id="7" xr3:uid="{E1EEA3B4-F290-4A54-898A-8B5CFDB3CB1C}" name="Score" dataDxfId="67"/>
+    <tableColumn id="8" xr3:uid="{DA696183-9435-4440-BB04-D8B2FCADC7C2}" name="TotalQuestions" dataDxfId="66"/>
+    <tableColumn id="9" xr3:uid="{FE2BB387-60F6-45F6-A1E4-FE7CB7937A2C}" name="CorrectAnswers" dataDxfId="65"/>
+    <tableColumn id="10" xr3:uid="{DA336C9B-D10C-4600-8A7B-6F37F4F7AEB9}" name="StartTime" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{6A6B5A56-9567-4C85-AC18-82925424D272}" name="EndTime" dataDxfId="63"/>
+    <tableColumn id="11" xr3:uid="{75744650-9CE9-45A0-9B81-F1C65C043216}" name="CompletionTime" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{42F24B4A-E5FC-4580-AC79-7A87B6E74532}" name="Table41012" displayName="Table41012" ref="A20:F23" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{42F24B4A-E5FC-4580-AC79-7A87B6E74532}" name="Table41012" displayName="Table41012" ref="A20:F23" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <autoFilter ref="A20:F23" xr:uid="{42F24B4A-E5FC-4580-AC79-7A87B6E74532}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AB2F2B92-4F5E-45D5-94FB-ADB8435B9566}" name="Id" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{B9827B33-45BE-47C1-A171-29F23AD74DC2}" name="UserName" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{B49FE75E-62B6-4D37-8C90-5095A776B904}" name="Email" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{D74DA2E3-95DA-43B1-B28C-B64A14ABA8B1}" name="Password" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{61E76584-885D-4BCA-A61B-05EE3807BA29}" name="CreatedAt" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{C5B91E7E-7207-4164-A092-76CF2F672774}" name="UpdateAt" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{AB2F2B92-4F5E-45D5-94FB-ADB8435B9566}" name="Id" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{B9827B33-45BE-47C1-A171-29F23AD74DC2}" name="UserName" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{B49FE75E-62B6-4D37-8C90-5095A776B904}" name="Email" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{D74DA2E3-95DA-43B1-B28C-B64A14ABA8B1}" name="Password" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{61E76584-885D-4BCA-A61B-05EE3807BA29}" name="CreatedAt" dataDxfId="55"/>
+    <tableColumn id="6" xr3:uid="{C5B91E7E-7207-4164-A092-76CF2F672774}" name="UpdateAt" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A3741F9-7340-4634-958D-243B2CB30081}" name="Table79133" displayName="Table79133" ref="G8:I11" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A3741F9-7340-4634-958D-243B2CB30081}" name="Table79133" displayName="Table79133" ref="G8:I11" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52" tableBorderDxfId="51">
   <autoFilter ref="G8:I11" xr:uid="{0A3741F9-7340-4634-958D-243B2CB30081}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{31F14D34-66D8-41C0-A3EA-4754B439DA63}" name="Id" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{8E3A139A-5007-4A16-BB0C-C46739F67B30}" name="QuestionId" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{F32C6264-78B0-42EF-820B-362961B4B35B}" name="AnswerId" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{31F14D34-66D8-41C0-A3EA-4754B439DA63}" name="Id" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{8E3A139A-5007-4A16-BB0C-C46739F67B30}" name="QuestionId" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{F32C6264-78B0-42EF-820B-362961B4B35B}" name="AnswerId" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1FA08D23-38C9-4F9D-A38F-2FAD175CEAC5}" name="Table4" displayName="Table4" ref="A8:E11" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1FA08D23-38C9-4F9D-A38F-2FAD175CEAC5}" name="Table4" displayName="Table4" ref="A8:E11" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A8:E11" xr:uid="{1FA08D23-38C9-4F9D-A38F-2FAD175CEAC5}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6D940C02-9530-4EAD-9CFB-AEBCF3BB6A31}" name="Id" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{12869B36-21EC-4622-8455-75F60E2AD58B}" name="AnswerText" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{97B8C5D1-BBA2-4E43-902B-8228BD6EFBA7}" name="IsCorrect" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{415B0A9F-E9AC-4B8E-9FF6-5F36248C5433}" name="IsDynamic" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{13FBD282-3F29-4BAF-BB02-64422CAE2315}" name="CanBeSuggested" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{6D940C02-9530-4EAD-9CFB-AEBCF3BB6A31}" name="Id" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{12869B36-21EC-4622-8455-75F60E2AD58B}" name="AnswerText" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{97B8C5D1-BBA2-4E43-902B-8228BD6EFBA7}" name="IsCorrect" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{415B0A9F-E9AC-4B8E-9FF6-5F36248C5433}" name="IsDynamic" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{13FBD282-3F29-4BAF-BB02-64422CAE2315}" name="CanBeSuggested" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BCABB276-88BA-4F24-A0D9-15F6C263304F}" name="Table61410" displayName="Table61410" ref="N2:Q5" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" tableBorderDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BCABB276-88BA-4F24-A0D9-15F6C263304F}" name="Table61410" displayName="Table61410" ref="N2:Q5" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="38">
   <autoFilter ref="N2:Q5" xr:uid="{BCABB276-88BA-4F24-A0D9-15F6C263304F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5EB3FF8F-A636-4EEE-B8E1-1807AA06E054}" name="Id" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{CEAAA849-0E1B-4880-BB0D-7B68048D946C}" name="QuizId" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{DAED52E6-0B97-493B-8C38-2D2C83FDE3CC}" name="QuestionId" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{1B02BC0F-6221-4E41-A04C-917A41872E22}" name="Order" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{5EB3FF8F-A636-4EEE-B8E1-1807AA06E054}" name="Id" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{CEAAA849-0E1B-4880-BB0D-7B68048D946C}" name="QuizId" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{DAED52E6-0B97-493B-8C38-2D2C83FDE3CC}" name="QuestionId" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{1B02BC0F-6221-4E41-A04C-917A41872E22}" name="Order" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2743,7 +2740,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -3338,9 +3335,6 @@
       </c>
       <c r="J21" s="1">
         <v>1</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>

--- a/Quiz challenge/Quiz simple data.xlsx
+++ b/Quiz challenge/Quiz simple data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mentorship_Program\Quiz challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5444597F-0168-44F5-87FA-D04818457822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392BBD17-34DE-4F32-A65C-4B28BE6EFF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{7C43A32B-1E6E-4A0B-8D6F-624FBD4948C3}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{7C43A32B-1E6E-4A0B-8D6F-624FBD4948C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2739,8 +2739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A88412-2F2D-4255-B565-F6FDBB99DF9D}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -3445,6 +3445,9 @@
       </c>
       <c r="C27" s="1">
         <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>10</v>
       </c>
       <c r="G27" s="6">
         <v>45590</v>
